--- a/dictionaries/urban_ath/1_0/1_0_non_rep.xlsx
+++ b/dictionaries/urban_ath/1_0/1_0_non_rep.xlsx
@@ -105,7 +105,7 @@
     <t xml:space="preserve">numeric</t>
   </si>
   <si>
-    <t xml:space="preserve">Unique identifer for the row in Opal</t>
+    <t xml:space="preserve">Unique identifier for the row in Opal</t>
   </si>
   <si>
     <t xml:space="preserve">child_id</t>
@@ -114,7 +114,7 @@
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">Unique identifer for the child</t>
+    <t xml:space="preserve">Unique identifier for the child</t>
   </si>
   <si>
     <t xml:space="preserve">cohort_id</t>
@@ -2167,8 +2167,8 @@
   </sheetPr>
   <dimension ref="A1:D613"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5892,7 +5892,7 @@
       <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26"/>

--- a/dictionaries/urban_ath/1_0/1_0_non_rep.xlsx
+++ b/dictionaries/urban_ath/1_0/1_0_non_rep.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Categories" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Variables!$C$97:$C$99</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Variables!$C$97:$C$99</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2156,10 +2156,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -2167,8 +2163,8 @@
   </sheetPr>
   <dimension ref="A1:D613"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5862,7 +5858,6 @@
       <c r="B613" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="C97:C99"/>
   <dataValidations count="1">
     <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3:B613" type="list">
       <formula1>"integer,decimal,text,binary,locale,boolean,datetime,date"</formula1>
@@ -5876,8 +5871,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5888,11 +5882,11 @@
   </sheetPr>
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65"/>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C65" activeCellId="1" sqref="1:1 C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26"/>

--- a/dictionaries/urban_ath/1_0/1_0_non_rep.xlsx
+++ b/dictionaries/urban_ath/1_0/1_0_non_rep.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" state="visible" r:id="rId2"/>
@@ -1450,11 +1450,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1590,19 +1589,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -1610,7 +1596,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1713,20 +1699,8 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1819,13 +1793,6 @@
       <bottom style="thin">
         <color rgb="FF1A1A1A"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -1975,73 +1942,13 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="18" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="19" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="55" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="18" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2161,3709 +2068,2382 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D613"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="54.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="5" style="1" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.71"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="0" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="0" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="0" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="0" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="0" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="0" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="0" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="0" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="0" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="0" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="0" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="B21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="0" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="0" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="0" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="0" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="0" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="0" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="0" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="0" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="0" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="B31" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="0" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="0" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="0" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="0" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="0" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="0" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="0" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="0" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="0" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="0" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="0" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="0" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="0" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="0" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="0" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="0" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="0" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="0" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="B50" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="0" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="B51" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="0" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="0" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="0" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="0" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="0" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="0" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="0" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B58" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="0" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="0" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B60" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="0" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="B61" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="0" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="B62" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="0" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="B63" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="0" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" s="9" t="s">
+      <c r="B64" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="0" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="B65" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="0" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="B66" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="0" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="B67" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="0" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="B68" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="0" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="B69" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="0" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="B70" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="0" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="B71" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="0" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="B72" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="0" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="B73" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="0" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="B74" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="0" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="B75" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="0" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="B76" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="0" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77" s="9" t="s">
+      <c r="B77" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="0" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" s="1" t="s">
+      <c r="B78" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="0" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79" s="10" t="s">
+      <c r="B79" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="0" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="B80" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="0" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" s="10" t="s">
+      <c r="B81" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="0" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82" s="9" t="s">
+      <c r="B82" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="0" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="B83" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="0" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="B84" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="0" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="B85" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="0" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="B86" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="0" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="B87" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="0" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="B88" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="0" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="B89" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="0" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="B90" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="0" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C91" s="9" t="s">
+      <c r="B91" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="0" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C92" s="9" t="s">
+      <c r="B92" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="0" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="9" t="s">
+      <c r="B93" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="0" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="B94" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="0" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="B95" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="0" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="B96" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="0" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" s="4" t="s">
+      <c r="B97" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="0" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="B98" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="0" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="B99" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="0" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="B100" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="0" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D101" s="1" t="s">
+      <c r="B101" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" s="0" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="B102" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="0" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="0" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="B104" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="B104" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="0" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C105" s="1" t="s">
+      <c r="B105" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="0" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="0" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="0" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="B108" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="0" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C109" s="1" t="s">
+      <c r="B109" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="0" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C110" s="1" t="s">
+      <c r="B110" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="0" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C111" s="1" t="s">
+      <c r="B111" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="0" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="0" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C113" s="1" t="s">
+      <c r="B113" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="0" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C114" s="1" t="s">
+      <c r="B114" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="0" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C115" s="1" t="s">
+      <c r="B115" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="0" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C116" s="1" t="s">
+      <c r="B116" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="0" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C117" s="1" t="s">
+      <c r="B117" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="0" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D118" s="1" t="s">
+      <c r="B118" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" s="0" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C119" s="1" t="s">
+      <c r="B119" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="0" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C120" s="1" t="s">
+      <c r="B120" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="0" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="0" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C122" s="1" t="s">
+      <c r="B122" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="0" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C123" s="1" t="s">
+      <c r="B123" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="0" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D124" s="1" t="s">
+      <c r="B124" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" s="0" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="0" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C126" s="1" t="s">
+      <c r="B126" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="0" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="B127" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C127" s="1" t="s">
+      <c r="B127" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="0" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="B128" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C128" s="1" t="s">
+      <c r="B128" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="0" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="B129" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C129" s="1" t="s">
+      <c r="B129" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="0" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C130" s="1" t="s">
+      <c r="B130" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="0" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="0" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C132" s="1" t="s">
+      <c r="B132" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="0" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C133" s="1" t="s">
+      <c r="B133" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="0" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="B134" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C134" s="1" t="s">
+      <c r="B134" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="0" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="B135" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C135" s="1" t="s">
+      <c r="B135" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="0" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="B136" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C136" s="1" t="s">
+      <c r="B136" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="0" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="B137" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C137" s="1" t="s">
+      <c r="B137" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" s="0" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="B138" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C138" s="1" t="s">
+      <c r="B138" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" s="0" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="B139" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C139" s="1" t="s">
+      <c r="B139" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" s="0" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="B140" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C140" s="1" t="s">
+      <c r="B140" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D140" s="0" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="B141" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C141" s="1" t="s">
+      <c r="B141" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D141" s="0" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="B142" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C142" s="1" t="s">
+      <c r="B142" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C142" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" s="0" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="B143" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C143" s="1" t="s">
+      <c r="B143" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" s="0" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="B144" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C144" s="1" t="s">
+      <c r="B144" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="0" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="B145" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C145" s="1" t="s">
+      <c r="B145" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="0" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="B146" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C146" s="1" t="s">
+      <c r="B146" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" s="0" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="B147" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C147" s="1" t="s">
+      <c r="B147" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C147" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" s="0" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="B148" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C148" s="1" t="s">
+      <c r="B148" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C148" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" s="0" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="B149" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C149" s="1" t="s">
+      <c r="B149" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="0" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="B150" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C150" s="1" t="s">
+      <c r="B150" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="0" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="B151" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C151" s="1" t="s">
+      <c r="B151" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="0" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="B152" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C152" s="1" t="s">
+      <c r="B152" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" s="0" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="B153" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C153" s="1" t="s">
+      <c r="B153" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="0" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="B154" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C154" s="1" t="s">
+      <c r="B154" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" s="0" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="B155" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C155" s="1" t="s">
+      <c r="B155" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" s="0" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="B156" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C156" s="1" t="s">
+      <c r="B156" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="0" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B157" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C157" s="1" t="s">
+      <c r="B157" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="0" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="B158" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C158" s="1" t="s">
+      <c r="B158" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C158" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" s="0" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="B159" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C159" s="1" t="s">
+      <c r="B159" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="0" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="B160" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C160" s="9" t="s">
+      <c r="B160" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" s="0" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="B161" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C161" s="1" t="s">
+      <c r="B161" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="0" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="B162" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C162" s="1" t="s">
+      <c r="B162" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D162" s="0" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="B163" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C163" s="1" t="s">
+      <c r="B163" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D163" s="0" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="B164" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C164" s="1" t="s">
+      <c r="B164" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" s="0" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="B165" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C165" s="1" t="s">
+      <c r="B165" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" s="0" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="B166" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C166" s="9" t="s">
+      <c r="B166" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D166" s="0" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="B167" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C167" s="9" t="s">
+      <c r="B167" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D167" s="0" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="B168" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C168" s="9" t="s">
+      <c r="B168" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D168" s="0" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="s">
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="B169" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C169" s="1" t="s">
+      <c r="B169" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C169" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" s="0" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="s">
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="B170" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C170" s="1" t="s">
+      <c r="B170" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D170" s="0" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="s">
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="B171" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C171" s="1" t="s">
+      <c r="B171" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C171" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" s="0" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="s">
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="B172" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D172" s="1" t="s">
+      <c r="B172" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" s="0" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="s">
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="B173" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C173" s="1" t="s">
+      <c r="B173" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C173" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D173" s="0" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="4"/>
-    </row>
-    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="4"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="4"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="4"/>
-    </row>
-    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="4"/>
-    </row>
-    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="4"/>
-    </row>
-    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="4"/>
-    </row>
-    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="4"/>
-    </row>
-    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B182" s="4"/>
-    </row>
-    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B183" s="4"/>
-    </row>
-    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="4"/>
-    </row>
-    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B185" s="4"/>
-    </row>
-    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="4"/>
-    </row>
-    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B187" s="4"/>
-    </row>
-    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="4"/>
-    </row>
-    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="4"/>
-    </row>
-    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="4"/>
-    </row>
-    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B191" s="4"/>
-    </row>
-    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B192" s="4"/>
-    </row>
-    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B193" s="4"/>
-    </row>
-    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B194" s="4"/>
-    </row>
-    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B195" s="4"/>
-    </row>
-    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B196" s="4"/>
-    </row>
-    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="4"/>
-    </row>
-    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B198" s="4"/>
-    </row>
-    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="4"/>
-    </row>
-    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B200" s="4"/>
-    </row>
-    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="4"/>
-    </row>
-    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="4"/>
-    </row>
-    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B203" s="4"/>
-    </row>
-    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B204" s="4"/>
-    </row>
-    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B205" s="4"/>
-    </row>
-    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B206" s="4"/>
-    </row>
-    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B207" s="4"/>
-    </row>
-    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B208" s="4"/>
-    </row>
-    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B209" s="4"/>
-    </row>
-    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B210" s="4"/>
-    </row>
-    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B211" s="4"/>
-    </row>
-    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B212" s="4"/>
-    </row>
-    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B213" s="4"/>
-    </row>
-    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="4"/>
-    </row>
-    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B215" s="4"/>
-    </row>
-    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B216" s="4"/>
-    </row>
-    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B217" s="4"/>
-    </row>
-    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B218" s="4"/>
-    </row>
-    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B219" s="4"/>
-    </row>
-    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B220" s="4"/>
-    </row>
-    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B221" s="4"/>
-    </row>
-    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B222" s="4"/>
-    </row>
-    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B223" s="4"/>
-    </row>
-    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B224" s="4"/>
-    </row>
-    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B225" s="4"/>
-    </row>
-    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B226" s="4"/>
-    </row>
-    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B227" s="4"/>
-    </row>
-    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B228" s="4"/>
-    </row>
-    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B229" s="4"/>
-    </row>
-    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B230" s="4"/>
-    </row>
-    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B231" s="4"/>
-    </row>
-    <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B232" s="4"/>
-    </row>
-    <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B233" s="4"/>
-    </row>
-    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B234" s="4"/>
-    </row>
-    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B235" s="4"/>
-    </row>
-    <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B236" s="4"/>
-    </row>
-    <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="4"/>
-    </row>
-    <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B238" s="4"/>
-    </row>
-    <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B239" s="4"/>
-    </row>
-    <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B240" s="4"/>
-    </row>
-    <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B241" s="4"/>
-    </row>
-    <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B242" s="4"/>
-    </row>
-    <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B243" s="4"/>
-    </row>
-    <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B244" s="4"/>
-    </row>
-    <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B245" s="4"/>
-    </row>
-    <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B246" s="4"/>
-    </row>
-    <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B247" s="4"/>
-    </row>
-    <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B248" s="4"/>
-    </row>
-    <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B249" s="4"/>
-    </row>
-    <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B250" s="4"/>
-    </row>
-    <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B251" s="4"/>
-    </row>
-    <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B252" s="4"/>
-    </row>
-    <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B253" s="4"/>
-    </row>
-    <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B254" s="4"/>
-    </row>
-    <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B255" s="4"/>
-    </row>
-    <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B256" s="4"/>
-    </row>
-    <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B257" s="4"/>
-    </row>
-    <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B258" s="4"/>
-    </row>
-    <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B259" s="4"/>
-    </row>
-    <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B260" s="4"/>
-    </row>
-    <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B261" s="4"/>
-    </row>
-    <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B262" s="4"/>
-    </row>
-    <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B263" s="4"/>
-    </row>
-    <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B264" s="4"/>
-    </row>
-    <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B265" s="4"/>
-    </row>
-    <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B266" s="4"/>
-    </row>
-    <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B267" s="4"/>
-    </row>
-    <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B268" s="4"/>
-    </row>
-    <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B269" s="4"/>
-    </row>
-    <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B270" s="4"/>
-    </row>
-    <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B271" s="4"/>
-    </row>
-    <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B272" s="4"/>
-    </row>
-    <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B273" s="4"/>
-    </row>
-    <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B274" s="4"/>
-    </row>
-    <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B275" s="4"/>
-    </row>
-    <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B276" s="4"/>
-    </row>
-    <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B277" s="4"/>
-    </row>
-    <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B278" s="4"/>
-    </row>
-    <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B279" s="4"/>
-    </row>
-    <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B280" s="4"/>
-    </row>
-    <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B281" s="4"/>
-    </row>
-    <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B282" s="4"/>
-    </row>
-    <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B283" s="4"/>
-    </row>
-    <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B284" s="4"/>
-    </row>
-    <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B285" s="4"/>
-    </row>
-    <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B286" s="4"/>
-    </row>
-    <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B287" s="4"/>
-    </row>
-    <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B288" s="4"/>
-    </row>
-    <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B289" s="4"/>
-    </row>
-    <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B290" s="4"/>
-    </row>
-    <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B291" s="4"/>
-    </row>
-    <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B292" s="4"/>
-    </row>
-    <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B293" s="4"/>
-    </row>
-    <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B294" s="4"/>
-    </row>
-    <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B295" s="4"/>
-    </row>
-    <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B296" s="4"/>
-    </row>
-    <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B297" s="4"/>
-    </row>
-    <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B298" s="4"/>
-    </row>
-    <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B299" s="4"/>
-    </row>
-    <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B300" s="4"/>
-    </row>
-    <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B301" s="4"/>
-    </row>
-    <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B302" s="4"/>
-    </row>
-    <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B303" s="4"/>
-    </row>
-    <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B304" s="4"/>
-    </row>
-    <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B305" s="4"/>
-    </row>
-    <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B306" s="4"/>
-    </row>
-    <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B307" s="4"/>
-    </row>
-    <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B308" s="4"/>
-    </row>
-    <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B309" s="4"/>
-    </row>
-    <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B310" s="4"/>
-    </row>
-    <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B311" s="4"/>
-    </row>
-    <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B312" s="4"/>
-    </row>
-    <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B313" s="4"/>
-    </row>
-    <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B314" s="4"/>
-    </row>
-    <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B315" s="4"/>
-    </row>
-    <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B316" s="4"/>
-    </row>
-    <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B317" s="4"/>
-    </row>
-    <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B318" s="4"/>
-    </row>
-    <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B319" s="4"/>
-    </row>
-    <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B320" s="4"/>
-    </row>
-    <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B321" s="4"/>
-    </row>
-    <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B322" s="4"/>
-    </row>
-    <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B323" s="4"/>
-    </row>
-    <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B324" s="4"/>
-    </row>
-    <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B325" s="4"/>
-    </row>
-    <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B326" s="4"/>
-    </row>
-    <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B327" s="4"/>
-    </row>
-    <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B328" s="4"/>
-    </row>
-    <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B329" s="4"/>
-    </row>
-    <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B330" s="4"/>
-    </row>
-    <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B331" s="4"/>
-    </row>
-    <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B332" s="4"/>
-    </row>
-    <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B333" s="4"/>
-    </row>
-    <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B334" s="4"/>
-    </row>
-    <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B335" s="4"/>
-    </row>
-    <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B336" s="4"/>
-    </row>
-    <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B337" s="4"/>
-    </row>
-    <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B338" s="4"/>
-    </row>
-    <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B339" s="4"/>
-    </row>
-    <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B340" s="4"/>
-    </row>
-    <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B341" s="4"/>
-    </row>
-    <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B342" s="4"/>
-    </row>
-    <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B343" s="4"/>
-    </row>
-    <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B344" s="4"/>
-    </row>
-    <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B345" s="4"/>
-    </row>
-    <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B346" s="4"/>
-    </row>
-    <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B347" s="4"/>
-    </row>
-    <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B348" s="4"/>
-    </row>
-    <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B349" s="4"/>
-    </row>
-    <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B350" s="4"/>
-    </row>
-    <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B351" s="4"/>
-    </row>
-    <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B352" s="4"/>
-    </row>
-    <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B353" s="4"/>
-    </row>
-    <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B354" s="4"/>
-    </row>
-    <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B355" s="4"/>
-    </row>
-    <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B356" s="4"/>
-    </row>
-    <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B357" s="4"/>
-    </row>
-    <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B358" s="4"/>
-    </row>
-    <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B359" s="4"/>
-    </row>
-    <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B360" s="4"/>
-    </row>
-    <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B361" s="4"/>
-    </row>
-    <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B362" s="4"/>
-    </row>
-    <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B363" s="4"/>
-    </row>
-    <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B364" s="4"/>
-    </row>
-    <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B365" s="4"/>
-    </row>
-    <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B366" s="4"/>
-    </row>
-    <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B367" s="4"/>
-    </row>
-    <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B368" s="4"/>
-    </row>
-    <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B369" s="4"/>
-    </row>
-    <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B370" s="4"/>
-    </row>
-    <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B371" s="4"/>
-    </row>
-    <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B372" s="4"/>
-    </row>
-    <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B373" s="4"/>
-    </row>
-    <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B374" s="4"/>
-    </row>
-    <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B375" s="4"/>
-    </row>
-    <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B376" s="4"/>
-    </row>
-    <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B377" s="4"/>
-    </row>
-    <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B378" s="4"/>
-    </row>
-    <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B379" s="4"/>
-    </row>
-    <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B380" s="4"/>
-    </row>
-    <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B381" s="4"/>
-    </row>
-    <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B382" s="4"/>
-    </row>
-    <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B383" s="4"/>
-    </row>
-    <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B384" s="4"/>
-    </row>
-    <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B385" s="4"/>
-    </row>
-    <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B386" s="4"/>
-    </row>
-    <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B387" s="4"/>
-    </row>
-    <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B388" s="4"/>
-    </row>
-    <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B389" s="4"/>
-    </row>
-    <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B390" s="4"/>
-    </row>
-    <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B391" s="4"/>
-    </row>
-    <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B392" s="4"/>
-    </row>
-    <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B393" s="4"/>
-    </row>
-    <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B394" s="4"/>
-    </row>
-    <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B395" s="4"/>
-    </row>
-    <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B396" s="4"/>
-    </row>
-    <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B397" s="4"/>
-    </row>
-    <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B398" s="4"/>
-    </row>
-    <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B399" s="4"/>
-    </row>
-    <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B400" s="4"/>
-    </row>
-    <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B401" s="4"/>
-    </row>
-    <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B402" s="4"/>
-    </row>
-    <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B403" s="4"/>
-    </row>
-    <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B404" s="4"/>
-    </row>
-    <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B405" s="4"/>
-    </row>
-    <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B406" s="4"/>
-    </row>
-    <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B407" s="4"/>
-    </row>
-    <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B408" s="4"/>
-    </row>
-    <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B409" s="4"/>
-    </row>
-    <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B410" s="4"/>
-    </row>
-    <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B411" s="4"/>
-    </row>
-    <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B412" s="4"/>
-    </row>
-    <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B413" s="4"/>
-    </row>
-    <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B414" s="4"/>
-    </row>
-    <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B415" s="4"/>
-    </row>
-    <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B416" s="4"/>
-    </row>
-    <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B417" s="4"/>
-    </row>
-    <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B418" s="4"/>
-    </row>
-    <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B419" s="4"/>
-    </row>
-    <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B420" s="4"/>
-    </row>
-    <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B421" s="4"/>
-    </row>
-    <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B422" s="4"/>
-    </row>
-    <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B423" s="4"/>
-    </row>
-    <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B424" s="4"/>
-    </row>
-    <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B425" s="4"/>
-    </row>
-    <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B426" s="4"/>
-    </row>
-    <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B427" s="4"/>
-    </row>
-    <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B428" s="4"/>
-    </row>
-    <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B429" s="4"/>
-    </row>
-    <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B430" s="4"/>
-    </row>
-    <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B431" s="4"/>
-    </row>
-    <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B432" s="4"/>
-    </row>
-    <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B433" s="4"/>
-    </row>
-    <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B434" s="4"/>
-    </row>
-    <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B435" s="4"/>
-    </row>
-    <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B436" s="4"/>
-    </row>
-    <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B437" s="4"/>
-    </row>
-    <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B438" s="4"/>
-    </row>
-    <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B439" s="4"/>
-    </row>
-    <row r="440" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B440" s="4"/>
-    </row>
-    <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B441" s="4"/>
-    </row>
-    <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B442" s="4"/>
-    </row>
-    <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B443" s="4"/>
-    </row>
-    <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B444" s="4"/>
-    </row>
-    <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B445" s="4"/>
-    </row>
-    <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B446" s="4"/>
-    </row>
-    <row r="447" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B447" s="4"/>
-    </row>
-    <row r="448" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B448" s="4"/>
-    </row>
-    <row r="449" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B449" s="4"/>
-    </row>
-    <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B450" s="4"/>
-    </row>
-    <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B451" s="4"/>
-    </row>
-    <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B452" s="4"/>
-    </row>
-    <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B453" s="4"/>
-    </row>
-    <row r="454" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B454" s="4"/>
-    </row>
-    <row r="455" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B455" s="4"/>
-    </row>
-    <row r="456" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B456" s="4"/>
-    </row>
-    <row r="457" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B457" s="4"/>
-    </row>
-    <row r="458" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B458" s="4"/>
-    </row>
-    <row r="459" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B459" s="4"/>
-    </row>
-    <row r="460" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B460" s="4"/>
-    </row>
-    <row r="461" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B461" s="4"/>
-    </row>
-    <row r="462" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B462" s="4"/>
-    </row>
-    <row r="463" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B463" s="4"/>
-    </row>
-    <row r="464" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B464" s="4"/>
-    </row>
-    <row r="465" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B465" s="4"/>
-    </row>
-    <row r="466" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B466" s="4"/>
-    </row>
-    <row r="467" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B467" s="4"/>
-    </row>
-    <row r="468" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B468" s="4"/>
-    </row>
-    <row r="469" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B469" s="4"/>
-    </row>
-    <row r="470" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B470" s="4"/>
-    </row>
-    <row r="471" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B471" s="4"/>
-    </row>
-    <row r="472" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B472" s="4"/>
-    </row>
-    <row r="473" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B473" s="4"/>
-    </row>
-    <row r="474" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B474" s="4"/>
-    </row>
-    <row r="475" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B475" s="4"/>
-    </row>
-    <row r="476" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B476" s="4"/>
-    </row>
-    <row r="477" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B477" s="4"/>
-    </row>
-    <row r="478" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B478" s="4"/>
-    </row>
-    <row r="479" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B479" s="4"/>
-    </row>
-    <row r="480" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B480" s="4"/>
-    </row>
-    <row r="481" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B481" s="4"/>
-    </row>
-    <row r="482" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B482" s="4"/>
-    </row>
-    <row r="483" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B483" s="4"/>
-    </row>
-    <row r="484" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B484" s="4"/>
-    </row>
-    <row r="485" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B485" s="4"/>
-    </row>
-    <row r="486" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B486" s="4"/>
-    </row>
-    <row r="487" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B487" s="4"/>
-    </row>
-    <row r="488" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B488" s="4"/>
-    </row>
-    <row r="489" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B489" s="4"/>
-    </row>
-    <row r="490" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B490" s="4"/>
-    </row>
-    <row r="491" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B491" s="4"/>
-    </row>
-    <row r="492" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B492" s="4"/>
-    </row>
-    <row r="493" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B493" s="4"/>
-    </row>
-    <row r="494" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B494" s="4"/>
-    </row>
-    <row r="495" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B495" s="4"/>
-    </row>
-    <row r="496" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B496" s="4"/>
-    </row>
-    <row r="497" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B497" s="4"/>
-    </row>
-    <row r="498" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B498" s="4"/>
-    </row>
-    <row r="499" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B499" s="4"/>
-    </row>
-    <row r="500" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B500" s="4"/>
-    </row>
-    <row r="501" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B501" s="4"/>
-    </row>
-    <row r="502" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B502" s="4"/>
-    </row>
-    <row r="503" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B503" s="4"/>
-    </row>
-    <row r="504" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B504" s="4"/>
-    </row>
-    <row r="505" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B505" s="4"/>
-    </row>
-    <row r="506" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B506" s="4"/>
-    </row>
-    <row r="507" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B507" s="4"/>
-    </row>
-    <row r="508" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B508" s="4"/>
-    </row>
-    <row r="509" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B509" s="4"/>
-    </row>
-    <row r="510" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B510" s="4"/>
-    </row>
-    <row r="511" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B511" s="4"/>
-    </row>
-    <row r="512" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B512" s="4"/>
-    </row>
-    <row r="513" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B513" s="4"/>
-    </row>
-    <row r="514" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B514" s="4"/>
-    </row>
-    <row r="515" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B515" s="4"/>
-    </row>
-    <row r="516" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B516" s="4"/>
-    </row>
-    <row r="517" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B517" s="4"/>
-    </row>
-    <row r="518" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B518" s="4"/>
-    </row>
-    <row r="519" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B519" s="4"/>
-    </row>
-    <row r="520" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B520" s="4"/>
-    </row>
-    <row r="521" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B521" s="4"/>
-    </row>
-    <row r="522" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B522" s="4"/>
-    </row>
-    <row r="523" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B523" s="4"/>
-    </row>
-    <row r="524" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B524" s="4"/>
-    </row>
-    <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B525" s="4"/>
-    </row>
-    <row r="526" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B526" s="4"/>
-    </row>
-    <row r="527" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B527" s="4"/>
-    </row>
-    <row r="528" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B528" s="4"/>
-    </row>
-    <row r="529" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B529" s="4"/>
-    </row>
-    <row r="530" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B530" s="4"/>
-    </row>
-    <row r="531" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B531" s="4"/>
-    </row>
-    <row r="532" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B532" s="4"/>
-    </row>
-    <row r="533" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B533" s="4"/>
-    </row>
-    <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B534" s="4"/>
-    </row>
-    <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B535" s="4"/>
-    </row>
-    <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B536" s="4"/>
-    </row>
-    <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B537" s="4"/>
-    </row>
-    <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B538" s="4"/>
-    </row>
-    <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B539" s="4"/>
-    </row>
-    <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B540" s="4"/>
-    </row>
-    <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B541" s="4"/>
-    </row>
-    <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B542" s="4"/>
-    </row>
-    <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B543" s="4"/>
-    </row>
-    <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B544" s="4"/>
-    </row>
-    <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B545" s="4"/>
-    </row>
-    <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B546" s="4"/>
-    </row>
-    <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B547" s="4"/>
-    </row>
-    <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B548" s="4"/>
-    </row>
-    <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B549" s="4"/>
-    </row>
-    <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B550" s="4"/>
-    </row>
-    <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B551" s="4"/>
-    </row>
-    <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B552" s="4"/>
-    </row>
-    <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B553" s="4"/>
-    </row>
-    <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B554" s="4"/>
-    </row>
-    <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B555" s="4"/>
-    </row>
-    <row r="556" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B556" s="4"/>
-    </row>
-    <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B557" s="4"/>
-    </row>
-    <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B558" s="4"/>
-    </row>
-    <row r="559" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B559" s="4"/>
-    </row>
-    <row r="560" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B560" s="4"/>
-    </row>
-    <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B561" s="4"/>
-    </row>
-    <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B562" s="4"/>
-    </row>
-    <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B563" s="4"/>
-    </row>
-    <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B564" s="4"/>
-    </row>
-    <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B565" s="4"/>
-    </row>
-    <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B566" s="4"/>
-    </row>
-    <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B567" s="4"/>
-    </row>
-    <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B568" s="4"/>
-    </row>
-    <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B569" s="4"/>
-    </row>
-    <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B570" s="4"/>
-    </row>
-    <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B571" s="4"/>
-    </row>
-    <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B572" s="4"/>
-    </row>
-    <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B573" s="4"/>
-    </row>
-    <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B574" s="4"/>
-    </row>
-    <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B575" s="4"/>
-    </row>
-    <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B576" s="4"/>
-    </row>
-    <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B577" s="4"/>
-    </row>
-    <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B578" s="4"/>
-    </row>
-    <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B579" s="4"/>
-    </row>
-    <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B580" s="4"/>
-    </row>
-    <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B581" s="4"/>
-    </row>
-    <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B582" s="4"/>
-    </row>
-    <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B583" s="4"/>
-    </row>
-    <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B584" s="4"/>
-    </row>
-    <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B585" s="4"/>
-    </row>
-    <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B586" s="4"/>
-    </row>
-    <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B587" s="4"/>
-    </row>
-    <row r="588" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B588" s="4"/>
-    </row>
-    <row r="589" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B589" s="4"/>
-    </row>
-    <row r="590" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B590" s="4"/>
-    </row>
-    <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B591" s="4"/>
-    </row>
-    <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B592" s="4"/>
-    </row>
-    <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B593" s="4"/>
-    </row>
-    <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B594" s="4"/>
-    </row>
-    <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B595" s="4"/>
-    </row>
-    <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B596" s="4"/>
-    </row>
-    <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B597" s="4"/>
-    </row>
-    <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B598" s="4"/>
-    </row>
-    <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B599" s="4"/>
-    </row>
-    <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B600" s="4"/>
-    </row>
-    <row r="601" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B601" s="4"/>
-    </row>
-    <row r="602" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B602" s="4"/>
-    </row>
-    <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B603" s="4"/>
-    </row>
-    <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B604" s="4"/>
-    </row>
-    <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B605" s="4"/>
-    </row>
-    <row r="606" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B606" s="4"/>
-    </row>
-    <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B607" s="4"/>
-    </row>
-    <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B608" s="4"/>
-    </row>
-    <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B609" s="4"/>
-    </row>
-    <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B610" s="4"/>
-    </row>
-    <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B611" s="4"/>
-    </row>
-    <row r="612" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B612" s="4"/>
-    </row>
-    <row r="613" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B613" s="4"/>
-    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3:B613" type="list">
-      <formula1>"integer,decimal,text,binary,locale,boolean,datetime,date"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5880,503 +4460,502 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E172"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C65" activeCellId="1" sqref="1:1 C65"/>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="13" t="n">
+      <c r="B2" s="0" t="n">
         <v>101</v>
       </c>
       <c r="C2" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="0" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="13" t="n">
+      <c r="B3" s="0" t="n">
         <v>102</v>
       </c>
       <c r="C3" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="0" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="13" t="n">
+      <c r="B4" s="0" t="n">
         <v>103</v>
       </c>
       <c r="C4" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="0" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="0" t="n">
         <v>104</v>
       </c>
       <c r="C5" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="0" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="13" t="n">
+      <c r="B6" s="0" t="n">
         <v>105</v>
       </c>
       <c r="C6" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="0" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13" t="n">
+      <c r="B7" s="0" t="n">
         <v>106</v>
       </c>
       <c r="C7" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="0" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="13" t="n">
+      <c r="B8" s="0" t="n">
         <v>107</v>
       </c>
       <c r="C8" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="0" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="13" t="n">
+      <c r="B9" s="0" t="n">
         <v>108</v>
       </c>
       <c r="C9" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="0" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13" t="n">
+      <c r="B10" s="0" t="n">
         <v>109</v>
       </c>
       <c r="C10" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="0" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13" t="n">
+      <c r="B11" s="0" t="n">
         <v>110</v>
       </c>
       <c r="C11" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="0" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="n">
+      <c r="B12" s="0" t="n">
         <v>111</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="0" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="n">
+      <c r="B13" s="0" t="n">
         <v>112</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="0" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="13" t="n">
+      <c r="B14" s="0" t="n">
         <v>113</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="0" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="13" t="n">
+      <c r="B15" s="0" t="n">
         <v>114</v>
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="0" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="13" t="n">
+      <c r="B16" s="0" t="n">
         <v>115</v>
       </c>
       <c r="C16" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="0" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="13" t="n">
+      <c r="B17" s="0" t="n">
         <v>116</v>
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="0" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="13" t="n">
+      <c r="B18" s="0" t="n">
         <v>117</v>
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="0" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="13" t="n">
+      <c r="B19" s="0" t="n">
         <v>118</v>
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="0" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="13" t="n">
+      <c r="B20" s="0" t="n">
         <v>119</v>
       </c>
       <c r="C20" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="0" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="13" t="n">
+      <c r="B21" s="0" t="n">
         <v>120</v>
       </c>
       <c r="C21" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="0" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="13" t="n">
+      <c r="B22" s="0" t="n">
         <v>121</v>
       </c>
       <c r="C22" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="0" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="13" t="n">
+      <c r="B23" s="0" t="n">
         <v>122</v>
       </c>
       <c r="C23" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="0" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="13" t="n">
+      <c r="B24" s="0" t="n">
         <v>123</v>
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="0" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="13" t="n">
+      <c r="B25" s="0" t="n">
         <v>124</v>
       </c>
       <c r="C25" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="0" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="s">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="14" t="n">
+      <c r="B26" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="C26" s="14" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="14" t="s">
+      <c r="C26" s="0" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="13" t="n">
+      <c r="B27" s="0" t="n">
         <v>126</v>
       </c>
       <c r="C27" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="0" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="13" t="n">
+      <c r="B28" s="0" t="n">
         <v>127</v>
       </c>
       <c r="C28" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="0" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="s">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="13" t="n">
+      <c r="B29" s="0" t="n">
         <v>128</v>
       </c>
       <c r="C29" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="0" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="s">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="13" t="n">
+      <c r="B30" s="0" t="n">
         <v>129</v>
       </c>
       <c r="C30" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="0" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="s">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="13" t="n">
+      <c r="B31" s="0" t="n">
         <v>130</v>
       </c>
       <c r="C31" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="0" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="s">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="13" t="n">
+      <c r="B32" s="0" t="n">
         <v>131</v>
       </c>
       <c r="C32" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="0" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15" t="s">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="7" t="n">
+      <c r="B33" s="0" t="n">
         <v>30</v>
       </c>
       <c r="C33" s="0" t="n">
@@ -6387,11 +4966,11 @@
         <v>405</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15" t="s">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="7" t="n">
+      <c r="B34" s="0" t="n">
         <v>23</v>
       </c>
       <c r="C34" s="0" t="n">
@@ -6402,11 +4981,11 @@
         <v>406</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="7" t="n">
+      <c r="B35" s="0" t="n">
         <v>22</v>
       </c>
       <c r="C35" s="0" t="n">
@@ -6417,11 +4996,11 @@
         <v>407</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="s">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="7" t="n">
+      <c r="B36" s="0" t="n">
         <v>21</v>
       </c>
       <c r="C36" s="0" t="n">
@@ -6432,11 +5011,11 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="7" t="n">
+      <c r="B37" s="0" t="n">
         <v>13</v>
       </c>
       <c r="C37" s="0" t="n">
@@ -6447,11 +5026,11 @@
         <v>409</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15" t="s">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="7" t="n">
+      <c r="B38" s="0" t="n">
         <v>12</v>
       </c>
       <c r="C38" s="0" t="n">
@@ -6462,11 +5041,11 @@
         <v>410</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15" t="s">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="7" t="n">
+      <c r="B39" s="0" t="n">
         <v>11</v>
       </c>
       <c r="C39" s="0" t="n">
@@ -6477,11 +5056,11 @@
         <v>411</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15" t="s">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="7" t="n">
+      <c r="B40" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C40" s="0" t="n">
@@ -6492,7 +5071,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>231</v>
       </c>
@@ -6507,7 +5086,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>231</v>
       </c>
@@ -6522,7 +5101,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>231</v>
       </c>
@@ -6537,7 +5116,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>231</v>
       </c>
@@ -6552,7 +5131,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>231</v>
       </c>
@@ -6567,7 +5146,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>231</v>
       </c>
@@ -6582,7 +5161,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>231</v>
       </c>
@@ -6597,7 +5176,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>231</v>
       </c>
@@ -6612,7 +5191,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>231</v>
       </c>
@@ -6627,7 +5206,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>231</v>
       </c>
@@ -6642,7 +5221,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>231</v>
       </c>
@@ -6657,7 +5236,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>231</v>
       </c>
@@ -6672,7 +5251,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>231</v>
       </c>
@@ -6687,7 +5266,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>231</v>
       </c>
@@ -6702,7 +5281,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>231</v>
       </c>
@@ -6717,7 +5296,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>231</v>
       </c>
@@ -6732,7 +5311,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>231</v>
       </c>
@@ -6747,7 +5326,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>231</v>
       </c>
@@ -6762,7 +5341,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>231</v>
       </c>
@@ -6777,7 +5356,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>231</v>
       </c>
@@ -6792,7 +5371,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>231</v>
       </c>
@@ -6807,7 +5386,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>231</v>
       </c>
@@ -6822,7 +5401,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>231</v>
       </c>
@@ -6837,7 +5416,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>231</v>
       </c>
@@ -6852,14 +5431,14 @@
         <v>436</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>231</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>2301</v>
       </c>
-      <c r="C65" s="16" t="n">
+      <c r="C65" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6867,14 +5446,14 @@
         <v>437</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C66" s="16" t="n">
+      <c r="C66" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6882,14 +5461,14 @@
         <v>438</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C67" s="16" t="n">
+      <c r="C67" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6897,14 +5476,14 @@
         <v>439</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C68" s="16" t="n">
+      <c r="C68" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6912,14 +5491,14 @@
         <v>440</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>23</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C69" s="16" t="n">
+      <c r="C69" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6927,14 +5506,14 @@
         <v>438</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>23</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C70" s="16" t="n">
+      <c r="C70" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6942,14 +5521,14 @@
         <v>441</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>23</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C71" s="16" t="n">
+      <c r="C71" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6957,14 +5536,14 @@
         <v>439</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>23</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C72" s="16" t="n">
+      <c r="C72" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6972,14 +5551,14 @@
         <v>442</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>23</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C73" s="16" t="n">
+      <c r="C73" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6987,14 +5566,14 @@
         <v>440</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>75</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C74" s="16" t="n">
+      <c r="C74" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7002,14 +5581,14 @@
         <v>443</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>75</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C75" s="16" t="n">
+      <c r="C75" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7017,14 +5596,14 @@
         <v>444</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>75</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C76" s="16" t="n">
+      <c r="C76" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7032,14 +5611,14 @@
         <v>445</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>75</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C77" s="16" t="n">
+      <c r="C77" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7047,14 +5626,14 @@
         <v>446</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>75</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C78" s="16" t="n">
+      <c r="C78" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7062,14 +5641,14 @@
         <v>447</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>75</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C79" s="16" t="n">
+      <c r="C79" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7077,14 +5656,14 @@
         <v>448</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>89</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C80" s="16" t="n">
+      <c r="C80" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7092,14 +5671,14 @@
         <v>449</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>89</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C81" s="16" t="n">
+      <c r="C81" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7107,14 +5686,14 @@
         <v>450</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>89</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C82" s="16" t="n">
+      <c r="C82" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7122,14 +5701,14 @@
         <v>444</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>89</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C83" s="16" t="n">
+      <c r="C83" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7137,14 +5716,14 @@
         <v>445</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>89</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C84" s="16" t="n">
+      <c r="C84" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7152,14 +5731,14 @@
         <v>446</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>89</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C85" s="16" t="n">
+      <c r="C85" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7167,14 +5746,14 @@
         <v>451</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>38</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C86" s="16" t="n">
+      <c r="C86" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7182,14 +5761,14 @@
         <v>452</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>59</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C87" s="16" t="n">
+      <c r="C87" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7197,14 +5776,14 @@
         <v>453</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>239</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C88" s="16" t="n">
+      <c r="C88" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7212,14 +5791,14 @@
         <v>438</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>239</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C89" s="16" t="n">
+      <c r="C89" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7227,14 +5806,14 @@
         <v>439</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>239</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C90" s="16" t="n">
+      <c r="C90" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7242,14 +5821,14 @@
         <v>440</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>237</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C91" s="16" t="n">
+      <c r="C91" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7257,14 +5836,14 @@
         <v>438</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>237</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C92" s="16" t="n">
+      <c r="C92" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7272,14 +5851,14 @@
         <v>441</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>237</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C93" s="16" t="n">
+      <c r="C93" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7287,14 +5866,14 @@
         <v>439</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>237</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C94" s="16" t="n">
+      <c r="C94" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7302,14 +5881,14 @@
         <v>442</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>237</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C95" s="16" t="n">
+      <c r="C95" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7317,14 +5896,14 @@
         <v>440</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>275</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C96" s="16" t="n">
+      <c r="C96" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7332,14 +5911,14 @@
         <v>443</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>275</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C97" s="16" t="n">
+      <c r="C97" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7347,14 +5926,14 @@
         <v>444</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>275</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C98" s="16" t="n">
+      <c r="C98" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7362,14 +5941,14 @@
         <v>445</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>275</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C99" s="16" t="n">
+      <c r="C99" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7377,14 +5956,14 @@
         <v>446</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>275</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C100" s="16" t="n">
+      <c r="C100" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7392,14 +5971,14 @@
         <v>447</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>275</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C101" s="16" t="n">
+      <c r="C101" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7407,14 +5986,14 @@
         <v>448</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>287</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C102" s="16" t="n">
+      <c r="C102" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7422,14 +6001,14 @@
         <v>449</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>287</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C103" s="16" t="n">
+      <c r="C103" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7437,14 +6016,14 @@
         <v>450</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>287</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C104" s="16" t="n">
+      <c r="C104" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7452,14 +6031,14 @@
         <v>444</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>287</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C105" s="16" t="n">
+      <c r="C105" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7467,14 +6046,14 @@
         <v>445</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>287</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C106" s="16" t="n">
+      <c r="C106" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7482,14 +6061,14 @@
         <v>446</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>287</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C107" s="16" t="n">
+      <c r="C107" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7497,14 +6076,14 @@
         <v>451</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>249</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C108" s="16" t="n">
+      <c r="C108" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -7512,209 +6091,20 @@
         <v>452</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>267</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C109" s="16" t="n">
+      <c r="C109" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="1"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="1"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="1"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="1"/>
-    </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="1"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="1"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="1"/>
-    </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="1"/>
-    </row>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="1"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="1"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="1"/>
-    </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="1"/>
-    </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="1"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="1"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="1"/>
-    </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="1"/>
-    </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="1"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="1"/>
-    </row>
-    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="1"/>
-    </row>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="1"/>
-    </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="1"/>
-    </row>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="1"/>
-    </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="1"/>
-    </row>
-    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="1"/>
-    </row>
-    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="1"/>
-    </row>
-    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="1"/>
-    </row>
-    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="1"/>
-    </row>
-    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="1"/>
-    </row>
-    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="1"/>
-    </row>
-    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="1"/>
-    </row>
-    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="1"/>
-    </row>
-    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="1"/>
-    </row>
-    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="1"/>
-    </row>
-    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="1"/>
-    </row>
-    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="1"/>
-    </row>
-    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="1"/>
-    </row>
-    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="1"/>
-    </row>
-    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="1"/>
-    </row>
-    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="1"/>
-    </row>
-    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="1"/>
-    </row>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="1"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="1"/>
-    </row>
-    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="1"/>
-    </row>
-    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="1"/>
-    </row>
-    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="1"/>
-    </row>
-    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="1"/>
-    </row>
-    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="1"/>
-    </row>
-    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="1"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="1"/>
-    </row>
-    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="1"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="1"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="1"/>
-    </row>
-    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="1"/>
-    </row>
-    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="1"/>
-    </row>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="1"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="1"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="1"/>
-    </row>
-    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="1"/>
-    </row>
-    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="1"/>
-    </row>
-    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="1"/>
-    </row>
-    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="1"/>
-    </row>
-    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="1"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/dictionaries/urban_ath/1_0/1_0_non_rep.xlsx
+++ b/dictionaries/urban_ath/1_0/1_0_non_rep.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26415"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_AF755BB544E45B5F7270BD190789DF5784D64760" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3DFD2D4-05DD-40E7-9D48-9AC994960BAE}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_AF755BB544E45B5F7270BD190789DF5784D64760" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F81EF70-9D14-4ED8-B743-271D6A502AAB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="455">
   <si>
     <t>name</t>
   </si>
@@ -1304,10 +1304,13 @@
     <t>hgs</t>
   </si>
   <si>
-    <t>recetox</t>
+    <t>elspac</t>
   </si>
   <si>
     <t>genxxi</t>
+  </si>
+  <si>
+    <t>genrnext</t>
   </si>
   <si>
     <t>city</t>
@@ -4645,10 +4648,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
@@ -5107,12 +5110,12 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>30</v>
-      </c>
-      <c r="C33" t="b">
+        <v>132</v>
+      </c>
+      <c r="C33" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D33" t="s">
@@ -5124,7 +5127,7 @@
         <v>13</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -5138,7 +5141,7 @@
         <v>13</v>
       </c>
       <c r="B35">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -5152,7 +5155,7 @@
         <v>13</v>
       </c>
       <c r="B36">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -5166,7 +5169,7 @@
         <v>13</v>
       </c>
       <c r="B37">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -5180,7 +5183,7 @@
         <v>13</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -5194,7 +5197,7 @@
         <v>13</v>
       </c>
       <c r="B39">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -5208,7 +5211,7 @@
         <v>13</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -5219,10 +5222,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>231</v>
+        <v>13</v>
       </c>
       <c r="B41">
-        <v>1001</v>
+        <v>10</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -5236,7 +5239,7 @@
         <v>231</v>
       </c>
       <c r="B42">
-        <v>1102</v>
+        <v>1001</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -5250,7 +5253,7 @@
         <v>231</v>
       </c>
       <c r="B43">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -5264,7 +5267,7 @@
         <v>231</v>
       </c>
       <c r="B44">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -5278,7 +5281,7 @@
         <v>231</v>
       </c>
       <c r="B45">
-        <v>1201</v>
+        <v>1104</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -5292,7 +5295,7 @@
         <v>231</v>
       </c>
       <c r="B46">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -5306,7 +5309,7 @@
         <v>231</v>
       </c>
       <c r="B47">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -5320,7 +5323,7 @@
         <v>231</v>
       </c>
       <c r="B48">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -5334,7 +5337,7 @@
         <v>231</v>
       </c>
       <c r="B49">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -5348,7 +5351,7 @@
         <v>231</v>
       </c>
       <c r="B50">
-        <v>1301</v>
+        <v>1205</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -5362,7 +5365,7 @@
         <v>231</v>
       </c>
       <c r="B51">
-        <v>1401</v>
+        <v>1301</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -5376,7 +5379,7 @@
         <v>231</v>
       </c>
       <c r="B52">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -5390,7 +5393,7 @@
         <v>231</v>
       </c>
       <c r="B53">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -5404,7 +5407,7 @@
         <v>231</v>
       </c>
       <c r="B54">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -5418,7 +5421,7 @@
         <v>231</v>
       </c>
       <c r="B55">
-        <v>1501</v>
+        <v>1404</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -5432,7 +5435,7 @@
         <v>231</v>
       </c>
       <c r="B56">
-        <v>1601</v>
+        <v>1501</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -5446,7 +5449,7 @@
         <v>231</v>
       </c>
       <c r="B57">
-        <v>1701</v>
+        <v>1601</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -5460,7 +5463,7 @@
         <v>231</v>
       </c>
       <c r="B58">
-        <v>1801</v>
+        <v>1701</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -5474,7 +5477,7 @@
         <v>231</v>
       </c>
       <c r="B59">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
@@ -5488,7 +5491,7 @@
         <v>231</v>
       </c>
       <c r="B60">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -5502,7 +5505,7 @@
         <v>231</v>
       </c>
       <c r="B61">
-        <v>1901</v>
+        <v>1803</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -5516,7 +5519,7 @@
         <v>231</v>
       </c>
       <c r="B62">
-        <v>1803</v>
+        <v>1901</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
@@ -5530,7 +5533,7 @@
         <v>231</v>
       </c>
       <c r="B63">
-        <v>2101</v>
+        <v>1804</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -5544,7 +5547,7 @@
         <v>231</v>
       </c>
       <c r="B64">
-        <v>2201</v>
+        <v>2101</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
@@ -5558,7 +5561,7 @@
         <v>231</v>
       </c>
       <c r="B65">
-        <v>2301</v>
+        <v>2201</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
@@ -5569,10 +5572,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>2301</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
@@ -5586,7 +5589,7 @@
         <v>25</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
@@ -5600,7 +5603,7 @@
         <v>25</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -5611,16 +5614,16 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -5628,13 +5631,13 @@
         <v>23</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -5642,13 +5645,13 @@
         <v>23</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -5656,13 +5659,13 @@
         <v>23</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5670,27 +5673,27 @@
         <v>23</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -5698,7 +5701,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -5712,7 +5715,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
@@ -5726,7 +5729,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -5740,7 +5743,7 @@
         <v>75</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -5754,7 +5757,7 @@
         <v>75</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -5765,10 +5768,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -5782,7 +5785,7 @@
         <v>89</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -5796,13 +5799,13 @@
         <v>89</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -5810,7 +5813,7 @@
         <v>89</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -5824,7 +5827,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
@@ -5838,21 +5841,21 @@
         <v>89</v>
       </c>
       <c r="B85">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -5863,10 +5866,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
@@ -5877,7 +5880,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>239</v>
+        <v>59</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -5886,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -5894,7 +5897,7 @@
         <v>239</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
@@ -5908,7 +5911,7 @@
         <v>239</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
@@ -5919,16 +5922,16 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -5936,13 +5939,13 @@
         <v>237</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" t="b">
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -5950,13 +5953,13 @@
         <v>237</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -5964,13 +5967,13 @@
         <v>237</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -5978,27 +5981,27 @@
         <v>237</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C95" t="b">
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -6006,7 +6009,7 @@
         <v>275</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
@@ -6020,7 +6023,7 @@
         <v>275</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
@@ -6034,7 +6037,7 @@
         <v>275</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
@@ -6048,7 +6051,7 @@
         <v>275</v>
       </c>
       <c r="B100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>
@@ -6062,7 +6065,7 @@
         <v>275</v>
       </c>
       <c r="B101">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" t="b">
         <v>0</v>
@@ -6073,10 +6076,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>
@@ -6090,7 +6093,7 @@
         <v>287</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
@@ -6104,13 +6107,13 @@
         <v>287</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -6118,7 +6121,7 @@
         <v>287</v>
       </c>
       <c r="B105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
@@ -6132,7 +6135,7 @@
         <v>287</v>
       </c>
       <c r="B106">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C106" t="b">
         <v>0</v>
@@ -6146,21 +6149,21 @@
         <v>287</v>
       </c>
       <c r="B107">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C108" t="b">
         <v>0</v>
@@ -6171,16 +6174,30 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="b">
         <v>0</v>
       </c>
       <c r="D109" t="s">
         <v>453</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>267</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="b">
+        <v>0</v>
+      </c>
+      <c r="D110" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/dictionaries/urban_ath/1_0/1_0_non_rep.xlsx
+++ b/dictionaries/urban_ath/1_0/1_0_non_rep.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26415"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROJECTS\ATHLETE\DOCUMENTS\dictionaries\jose_dictionaries\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{3C7DCB47-9CAD-40CA-9189-C25A657794B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEC48EA2-659A-4168-9B93-51CACEBF0475}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_AF755BB544E45B5F7270BD190789DF5784D64760" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F81EF70-9D14-4ED8-B743-271D6A502AAB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variables!$A$1:$D$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Variables!$C$97:$C$99</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,12 +27,73 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C79" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">JOSÉ MIGUEL, URQUIZA ORTIZ:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hectopascal not in lifecycle Unit and Athlete?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C81" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">JOSÉ MIGUEL, URQUIZA ORTIZ:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>watts_per_m2, not in lifecycle, athlete?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="455">
   <si>
     <t>name</t>
   </si>
@@ -60,7 +116,7 @@
     <t>numeric</t>
   </si>
   <si>
-    <t>Unique identifer for the row in Opal</t>
+    <t>Unique identifier for the row in Opal</t>
   </si>
   <si>
     <t>child_id</t>
@@ -69,7 +125,7 @@
     <t>text</t>
   </si>
   <si>
-    <t>Unique identifer for the child</t>
+    <t>Unique identifier for the child</t>
   </si>
   <si>
     <t>cohort_id</t>
@@ -258,15 +314,6 @@
     <t>percentage of indtr (industrial, commercial, public, military and private units) land use within a buffer of 300 m at pregnancy</t>
   </si>
   <si>
-    <t>ath_lan_preg</t>
-  </si>
-  <si>
-    <t>DN</t>
-  </si>
-  <si>
-    <t>nighttime light at pregnancy</t>
-  </si>
-  <si>
     <t>ath_landuseshan300_preg</t>
   </si>
   <si>
@@ -567,117 +614,120 @@
     <t>ath_popdens_preg</t>
   </si>
   <si>
+    <t>people_per_square_kilometer</t>
+  </si>
+  <si>
+    <t>population density at pregnancy</t>
+  </si>
+  <si>
+    <t>ath_port_preg</t>
+  </si>
+  <si>
+    <t>percentage of port (port areas) land use within a buffer of 300 m at pregnancy</t>
+  </si>
+  <si>
+    <t>ath_pp_preg</t>
+  </si>
+  <si>
+    <t>Hectopascal</t>
+  </si>
+  <si>
+    <t>average of sea level pressure from eobs data during pregnancy</t>
+  </si>
+  <si>
+    <t>ath_ptc_preg</t>
+  </si>
+  <si>
+    <t>average of percent of tree covered within a buffer of 300 m at pregnancy</t>
+  </si>
+  <si>
+    <t>ath_qq_preg</t>
+  </si>
+  <si>
+    <t>watt per square meter</t>
+  </si>
+  <si>
+    <t>average of daily mean global radiation from eobs data during pregnancy</t>
+  </si>
+  <si>
+    <t>ath_rr_preg</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>average of precipitation sum from eobs data during pregnancy</t>
+  </si>
+  <si>
+    <t>ath_stops_100_preg</t>
+  </si>
+  <si>
+    <t>number of public transport stops within a buffer of 100 m at pregnancy</t>
+  </si>
+  <si>
+    <t>ath_stops_300_preg</t>
+  </si>
+  <si>
+    <t>number of public transport stops within a buffer of 300 m at pregnancy</t>
+  </si>
+  <si>
+    <t>ath_stops_500_preg</t>
+  </si>
+  <si>
+    <t>number of public transport stops within a buffer of 500 m at pregnancy</t>
+  </si>
+  <si>
+    <t>ath_tg_preg</t>
+  </si>
+  <si>
+    <t>average of mean temperature from eobs data during pregnancy</t>
+  </si>
+  <si>
+    <t>ath_tm_preg</t>
+  </si>
+  <si>
+    <t>average of mean temperature during pregnancy</t>
+  </si>
+  <si>
+    <t>ath_tmax_preg</t>
+  </si>
+  <si>
+    <t>average of maximum temperature during pregnancy</t>
+  </si>
+  <si>
+    <t>ath_tmin_preg</t>
+  </si>
+  <si>
+    <t>average of minimum temperature during pregnancy</t>
+  </si>
+  <si>
+    <t>ath_tn_preg</t>
+  </si>
+  <si>
+    <t>average of minimum temperature from eobs data during pregnancy</t>
+  </si>
+  <si>
+    <t>ath_trafload100_preg</t>
+  </si>
+  <si>
+    <t>vehicles_per_day_and_meter</t>
+  </si>
+  <si>
+    <t>total traffic load of all roads within a buffer of 100 m at pregnancy</t>
+  </si>
+  <si>
+    <t>ath_trafmajorload100_preg</t>
+  </si>
+  <si>
+    <t>total traffic load of major roads within a buffer of 100 m at pregnancy</t>
+  </si>
+  <si>
+    <t>ath_trafnear_preg</t>
+  </si>
+  <si>
     <t>vehicles_per_day</t>
   </si>
   <si>
-    <t>population density at pregnancy</t>
-  </si>
-  <si>
-    <t>ath_port_preg</t>
-  </si>
-  <si>
-    <t>percentage of port (port areas) land use within a buffer of 300 m at pregnancy</t>
-  </si>
-  <si>
-    <t>ath_pp_preg</t>
-  </si>
-  <si>
-    <t>Hectopascal</t>
-  </si>
-  <si>
-    <t>average of sea level pressure from eobs data during pregnancy</t>
-  </si>
-  <si>
-    <t>ath_ptc_preg</t>
-  </si>
-  <si>
-    <t>average of percent of tree covered within a buffer of 300 m at pregnancy</t>
-  </si>
-  <si>
-    <t>ath_qq_preg</t>
-  </si>
-  <si>
-    <t>watt per square meter</t>
-  </si>
-  <si>
-    <t>average of daily mean global radiation from eobs data during pregnancy</t>
-  </si>
-  <si>
-    <t>ath_rr_preg</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>average of precipitation sum from eobs data during pregnancy</t>
-  </si>
-  <si>
-    <t>ath_stops_100_preg</t>
-  </si>
-  <si>
-    <t>number of public transport stops within a buffer of 100 m at pregnancy</t>
-  </si>
-  <si>
-    <t>ath_stops_300_preg</t>
-  </si>
-  <si>
-    <t>number of public transport stops within a buffer of 300 m at pregnancy</t>
-  </si>
-  <si>
-    <t>ath_stops_500_preg</t>
-  </si>
-  <si>
-    <t>number of public transport stops within a buffer of 500 m at pregnancy</t>
-  </si>
-  <si>
-    <t>ath_tg_preg</t>
-  </si>
-  <si>
-    <t>average of mean temperature from eobs data during pregnancy</t>
-  </si>
-  <si>
-    <t>ath_tm_preg</t>
-  </si>
-  <si>
-    <t>average of mean temperature during pregnancy</t>
-  </si>
-  <si>
-    <t>ath_tmax_preg</t>
-  </si>
-  <si>
-    <t>average of maximum temperature during pregnancy</t>
-  </si>
-  <si>
-    <t>ath_tmin_preg</t>
-  </si>
-  <si>
-    <t>average of minimum temperature during pregnancy</t>
-  </si>
-  <si>
-    <t>ath_tn_preg</t>
-  </si>
-  <si>
-    <t>average of minimum temperature from eobs data during pregnancy</t>
-  </si>
-  <si>
-    <t>ath_trafload100_preg</t>
-  </si>
-  <si>
-    <t>vehicles_per_day_and_meter</t>
-  </si>
-  <si>
-    <t>total traffic load of all roads within a buffer of 100 m at pregnancy</t>
-  </si>
-  <si>
-    <t>ath_trafmajorload100_preg</t>
-  </si>
-  <si>
-    <t>total traffic load of major roads within a buffer of 100 m at pregnancy</t>
-  </si>
-  <si>
-    <t>ath_trafnear_preg</t>
-  </si>
-  <si>
     <t>traffic density on nearest road at pregnancy</t>
   </si>
   <si>
@@ -864,12 +914,6 @@
     <t>percentage of indtr (industrial, commercial, public, military and private units) land use within a buffer of 300 m at birth</t>
   </si>
   <si>
-    <t>ath_lan_0</t>
-  </si>
-  <si>
-    <t>nighttime light at birth</t>
-  </si>
-  <si>
     <t>ath_landuseshan300_0</t>
   </si>
   <si>
@@ -1089,9 +1133,6 @@
     <t>ath_popdens_0</t>
   </si>
   <si>
-    <t>people_per_square_kilometer</t>
-  </si>
-  <si>
     <t>population density at birth</t>
   </si>
   <si>
@@ -1249,9 +1290,6 @@
   </si>
   <si>
     <t xml:space="preserve">environage </t>
-  </si>
-  <si>
-    <t>helix</t>
   </si>
   <si>
     <t>pelagie</t>
@@ -1426,7 +1464,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1547,9 +1585,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1559,44 +1597,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="21">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1699,26 +1701,8 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1813,21 +1797,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1866,41 +1835,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="40"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="36"/>
   </cellXfs>
   <cellStyles count="41">
     <cellStyle name="20% - Accent1" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1939,11 +1882,11 @@
     <cellStyle name="Input" xfId="34" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Linked Cell" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Note 5" xfId="36" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Output" xfId="37" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Title" xfId="38" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Warning Text" xfId="39" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Normal 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Note 5" xfId="37" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Output" xfId="38" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Title" xfId="39" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Warning Text" xfId="40" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2322,36 +2265,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMH176"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
-    </sheetView>
+    <sheetView showFormulas="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="26" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" style="1" customWidth="1"/>
-    <col min="5" max="1022" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1022" s="3" customFormat="1" ht="15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1022">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2364,1042 +2304,23 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
-      <c r="AL2"/>
-      <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
-      <c r="AP2"/>
-      <c r="AQ2"/>
-      <c r="AR2"/>
-      <c r="AS2"/>
-      <c r="AT2"/>
-      <c r="AU2"/>
-      <c r="AV2"/>
-      <c r="AW2"/>
-      <c r="AX2"/>
-      <c r="AY2"/>
-      <c r="AZ2"/>
-      <c r="BA2"/>
-      <c r="BB2"/>
-      <c r="BC2"/>
-      <c r="BD2"/>
-      <c r="BE2"/>
-      <c r="BF2"/>
-      <c r="BG2"/>
-      <c r="BH2"/>
-      <c r="BI2"/>
-      <c r="BJ2"/>
-      <c r="BK2"/>
-      <c r="BL2"/>
-      <c r="BM2"/>
-      <c r="BN2"/>
-      <c r="BO2"/>
-      <c r="BP2"/>
-      <c r="BQ2"/>
-      <c r="BR2"/>
-      <c r="BS2"/>
-      <c r="BT2"/>
-      <c r="BU2"/>
-      <c r="BV2"/>
-      <c r="BW2"/>
-      <c r="BX2"/>
-      <c r="BY2"/>
-      <c r="BZ2"/>
-      <c r="CA2"/>
-      <c r="CB2"/>
-      <c r="CC2"/>
-      <c r="CD2"/>
-      <c r="CE2"/>
-      <c r="CF2"/>
-      <c r="CG2"/>
-      <c r="CH2"/>
-      <c r="CI2"/>
-      <c r="CJ2"/>
-      <c r="CK2"/>
-      <c r="CL2"/>
-      <c r="CM2"/>
-      <c r="CN2"/>
-      <c r="CO2"/>
-      <c r="CP2"/>
-      <c r="CQ2"/>
-      <c r="CR2"/>
-      <c r="CS2"/>
-      <c r="CT2"/>
-      <c r="CU2"/>
-      <c r="CV2"/>
-      <c r="CW2"/>
-      <c r="CX2"/>
-      <c r="CY2"/>
-      <c r="CZ2"/>
-      <c r="DA2"/>
-      <c r="DB2"/>
-      <c r="DC2"/>
-      <c r="DD2"/>
-      <c r="DE2"/>
-      <c r="DF2"/>
-      <c r="DG2"/>
-      <c r="DH2"/>
-      <c r="DI2"/>
-      <c r="DJ2"/>
-      <c r="DK2"/>
-      <c r="DL2"/>
-      <c r="DM2"/>
-      <c r="DN2"/>
-      <c r="DO2"/>
-      <c r="DP2"/>
-      <c r="DQ2"/>
-      <c r="DR2"/>
-      <c r="DS2"/>
-      <c r="DT2"/>
-      <c r="DU2"/>
-      <c r="DV2"/>
-      <c r="DW2"/>
-      <c r="DX2"/>
-      <c r="DY2"/>
-      <c r="DZ2"/>
-      <c r="EA2"/>
-      <c r="EB2"/>
-      <c r="EC2"/>
-      <c r="ED2"/>
-      <c r="EE2"/>
-      <c r="EF2"/>
-      <c r="EG2"/>
-      <c r="EH2"/>
-      <c r="EI2"/>
-      <c r="EJ2"/>
-      <c r="EK2"/>
-      <c r="EL2"/>
-      <c r="EM2"/>
-      <c r="EN2"/>
-      <c r="EO2"/>
-      <c r="EP2"/>
-      <c r="EQ2"/>
-      <c r="ER2"/>
-      <c r="ES2"/>
-      <c r="ET2"/>
-      <c r="EU2"/>
-      <c r="EV2"/>
-      <c r="EW2"/>
-      <c r="EX2"/>
-      <c r="EY2"/>
-      <c r="EZ2"/>
-      <c r="FA2"/>
-      <c r="FB2"/>
-      <c r="FC2"/>
-      <c r="FD2"/>
-      <c r="FE2"/>
-      <c r="FF2"/>
-      <c r="FG2"/>
-      <c r="FH2"/>
-      <c r="FI2"/>
-      <c r="FJ2"/>
-      <c r="FK2"/>
-      <c r="FL2"/>
-      <c r="FM2"/>
-      <c r="FN2"/>
-      <c r="FO2"/>
-      <c r="FP2"/>
-      <c r="FQ2"/>
-      <c r="FR2"/>
-      <c r="FS2"/>
-      <c r="FT2"/>
-      <c r="FU2"/>
-      <c r="FV2"/>
-      <c r="FW2"/>
-      <c r="FX2"/>
-      <c r="FY2"/>
-      <c r="FZ2"/>
-      <c r="GA2"/>
-      <c r="GB2"/>
-      <c r="GC2"/>
-      <c r="GD2"/>
-      <c r="GE2"/>
-      <c r="GF2"/>
-      <c r="GG2"/>
-      <c r="GH2"/>
-      <c r="GI2"/>
-      <c r="GJ2"/>
-      <c r="GK2"/>
-      <c r="GL2"/>
-      <c r="GM2"/>
-      <c r="GN2"/>
-      <c r="GO2"/>
-      <c r="GP2"/>
-      <c r="GQ2"/>
-      <c r="GR2"/>
-      <c r="GS2"/>
-      <c r="GT2"/>
-      <c r="GU2"/>
-      <c r="GV2"/>
-      <c r="GW2"/>
-      <c r="GX2"/>
-      <c r="GY2"/>
-      <c r="GZ2"/>
-      <c r="HA2"/>
-      <c r="HB2"/>
-      <c r="HC2"/>
-      <c r="HD2"/>
-      <c r="HE2"/>
-      <c r="HF2"/>
-      <c r="HG2"/>
-      <c r="HH2"/>
-      <c r="HI2"/>
-      <c r="HJ2"/>
-      <c r="HK2"/>
-      <c r="HL2"/>
-      <c r="HM2"/>
-      <c r="HN2"/>
-      <c r="HO2"/>
-      <c r="HP2"/>
-      <c r="HQ2"/>
-      <c r="HR2"/>
-      <c r="HS2"/>
-      <c r="HT2"/>
-      <c r="HU2"/>
-      <c r="HV2"/>
-      <c r="HW2"/>
-      <c r="HX2"/>
-      <c r="HY2"/>
-      <c r="HZ2"/>
-      <c r="IA2"/>
-      <c r="IB2"/>
-      <c r="IC2"/>
-      <c r="ID2"/>
-      <c r="IE2"/>
-      <c r="IF2"/>
-      <c r="IG2"/>
-      <c r="IH2"/>
-      <c r="II2"/>
-      <c r="IJ2"/>
-      <c r="IK2"/>
-      <c r="IL2"/>
-      <c r="IM2"/>
-      <c r="IN2"/>
-      <c r="IO2"/>
-      <c r="IP2"/>
-      <c r="IQ2"/>
-      <c r="IR2"/>
-      <c r="IS2"/>
-      <c r="IT2"/>
-      <c r="IU2"/>
-      <c r="IV2"/>
-      <c r="IW2"/>
-      <c r="IX2"/>
-      <c r="IY2"/>
-      <c r="IZ2"/>
-      <c r="JA2"/>
-      <c r="JB2"/>
-      <c r="JC2"/>
-      <c r="JD2"/>
-      <c r="JE2"/>
-      <c r="JF2"/>
-      <c r="JG2"/>
-      <c r="JH2"/>
-      <c r="JI2"/>
-      <c r="JJ2"/>
-      <c r="JK2"/>
-      <c r="JL2"/>
-      <c r="JM2"/>
-      <c r="JN2"/>
-      <c r="JO2"/>
-      <c r="JP2"/>
-      <c r="JQ2"/>
-      <c r="JR2"/>
-      <c r="JS2"/>
-      <c r="JT2"/>
-      <c r="JU2"/>
-      <c r="JV2"/>
-      <c r="JW2"/>
-      <c r="JX2"/>
-      <c r="JY2"/>
-      <c r="JZ2"/>
-      <c r="KA2"/>
-      <c r="KB2"/>
-      <c r="KC2"/>
-      <c r="KD2"/>
-      <c r="KE2"/>
-      <c r="KF2"/>
-      <c r="KG2"/>
-      <c r="KH2"/>
-      <c r="KI2"/>
-      <c r="KJ2"/>
-      <c r="KK2"/>
-      <c r="KL2"/>
-      <c r="KM2"/>
-      <c r="KN2"/>
-      <c r="KO2"/>
-      <c r="KP2"/>
-      <c r="KQ2"/>
-      <c r="KR2"/>
-      <c r="KS2"/>
-      <c r="KT2"/>
-      <c r="KU2"/>
-      <c r="KV2"/>
-      <c r="KW2"/>
-      <c r="KX2"/>
-      <c r="KY2"/>
-      <c r="KZ2"/>
-      <c r="LA2"/>
-      <c r="LB2"/>
-      <c r="LC2"/>
-      <c r="LD2"/>
-      <c r="LE2"/>
-      <c r="LF2"/>
-      <c r="LG2"/>
-      <c r="LH2"/>
-      <c r="LI2"/>
-      <c r="LJ2"/>
-      <c r="LK2"/>
-      <c r="LL2"/>
-      <c r="LM2"/>
-      <c r="LN2"/>
-      <c r="LO2"/>
-      <c r="LP2"/>
-      <c r="LQ2"/>
-      <c r="LR2"/>
-      <c r="LS2"/>
-      <c r="LT2"/>
-      <c r="LU2"/>
-      <c r="LV2"/>
-      <c r="LW2"/>
-      <c r="LX2"/>
-      <c r="LY2"/>
-      <c r="LZ2"/>
-      <c r="MA2"/>
-      <c r="MB2"/>
-      <c r="MC2"/>
-      <c r="MD2"/>
-      <c r="ME2"/>
-      <c r="MF2"/>
-      <c r="MG2"/>
-      <c r="MH2"/>
-      <c r="MI2"/>
-      <c r="MJ2"/>
-      <c r="MK2"/>
-      <c r="ML2"/>
-      <c r="MM2"/>
-      <c r="MN2"/>
-      <c r="MO2"/>
-      <c r="MP2"/>
-      <c r="MQ2"/>
-      <c r="MR2"/>
-      <c r="MS2"/>
-      <c r="MT2"/>
-      <c r="MU2"/>
-      <c r="MV2"/>
-      <c r="MW2"/>
-      <c r="MX2"/>
-      <c r="MY2"/>
-      <c r="MZ2"/>
-      <c r="NA2"/>
-      <c r="NB2"/>
-      <c r="NC2"/>
-      <c r="ND2"/>
-      <c r="NE2"/>
-      <c r="NF2"/>
-      <c r="NG2"/>
-      <c r="NH2"/>
-      <c r="NI2"/>
-      <c r="NJ2"/>
-      <c r="NK2"/>
-      <c r="NL2"/>
-      <c r="NM2"/>
-      <c r="NN2"/>
-      <c r="NO2"/>
-      <c r="NP2"/>
-      <c r="NQ2"/>
-      <c r="NR2"/>
-      <c r="NS2"/>
-      <c r="NT2"/>
-      <c r="NU2"/>
-      <c r="NV2"/>
-      <c r="NW2"/>
-      <c r="NX2"/>
-      <c r="NY2"/>
-      <c r="NZ2"/>
-      <c r="OA2"/>
-      <c r="OB2"/>
-      <c r="OC2"/>
-      <c r="OD2"/>
-      <c r="OE2"/>
-      <c r="OF2"/>
-      <c r="OG2"/>
-      <c r="OH2"/>
-      <c r="OI2"/>
-      <c r="OJ2"/>
-      <c r="OK2"/>
-      <c r="OL2"/>
-      <c r="OM2"/>
-      <c r="ON2"/>
-      <c r="OO2"/>
-      <c r="OP2"/>
-      <c r="OQ2"/>
-      <c r="OR2"/>
-      <c r="OS2"/>
-      <c r="OT2"/>
-      <c r="OU2"/>
-      <c r="OV2"/>
-      <c r="OW2"/>
-      <c r="OX2"/>
-      <c r="OY2"/>
-      <c r="OZ2"/>
-      <c r="PA2"/>
-      <c r="PB2"/>
-      <c r="PC2"/>
-      <c r="PD2"/>
-      <c r="PE2"/>
-      <c r="PF2"/>
-      <c r="PG2"/>
-      <c r="PH2"/>
-      <c r="PI2"/>
-      <c r="PJ2"/>
-      <c r="PK2"/>
-      <c r="PL2"/>
-      <c r="PM2"/>
-      <c r="PN2"/>
-      <c r="PO2"/>
-      <c r="PP2"/>
-      <c r="PQ2"/>
-      <c r="PR2"/>
-      <c r="PS2"/>
-      <c r="PT2"/>
-      <c r="PU2"/>
-      <c r="PV2"/>
-      <c r="PW2"/>
-      <c r="PX2"/>
-      <c r="PY2"/>
-      <c r="PZ2"/>
-      <c r="QA2"/>
-      <c r="QB2"/>
-      <c r="QC2"/>
-      <c r="QD2"/>
-      <c r="QE2"/>
-      <c r="QF2"/>
-      <c r="QG2"/>
-      <c r="QH2"/>
-      <c r="QI2"/>
-      <c r="QJ2"/>
-      <c r="QK2"/>
-      <c r="QL2"/>
-      <c r="QM2"/>
-      <c r="QN2"/>
-      <c r="QO2"/>
-      <c r="QP2"/>
-      <c r="QQ2"/>
-      <c r="QR2"/>
-      <c r="QS2"/>
-      <c r="QT2"/>
-      <c r="QU2"/>
-      <c r="QV2"/>
-      <c r="QW2"/>
-      <c r="QX2"/>
-      <c r="QY2"/>
-      <c r="QZ2"/>
-      <c r="RA2"/>
-      <c r="RB2"/>
-      <c r="RC2"/>
-      <c r="RD2"/>
-      <c r="RE2"/>
-      <c r="RF2"/>
-      <c r="RG2"/>
-      <c r="RH2"/>
-      <c r="RI2"/>
-      <c r="RJ2"/>
-      <c r="RK2"/>
-      <c r="RL2"/>
-      <c r="RM2"/>
-      <c r="RN2"/>
-      <c r="RO2"/>
-      <c r="RP2"/>
-      <c r="RQ2"/>
-      <c r="RR2"/>
-      <c r="RS2"/>
-      <c r="RT2"/>
-      <c r="RU2"/>
-      <c r="RV2"/>
-      <c r="RW2"/>
-      <c r="RX2"/>
-      <c r="RY2"/>
-      <c r="RZ2"/>
-      <c r="SA2"/>
-      <c r="SB2"/>
-      <c r="SC2"/>
-      <c r="SD2"/>
-      <c r="SE2"/>
-      <c r="SF2"/>
-      <c r="SG2"/>
-      <c r="SH2"/>
-      <c r="SI2"/>
-      <c r="SJ2"/>
-      <c r="SK2"/>
-      <c r="SL2"/>
-      <c r="SM2"/>
-      <c r="SN2"/>
-      <c r="SO2"/>
-      <c r="SP2"/>
-      <c r="SQ2"/>
-      <c r="SR2"/>
-      <c r="SS2"/>
-      <c r="ST2"/>
-      <c r="SU2"/>
-      <c r="SV2"/>
-      <c r="SW2"/>
-      <c r="SX2"/>
-      <c r="SY2"/>
-      <c r="SZ2"/>
-      <c r="TA2"/>
-      <c r="TB2"/>
-      <c r="TC2"/>
-      <c r="TD2"/>
-      <c r="TE2"/>
-      <c r="TF2"/>
-      <c r="TG2"/>
-      <c r="TH2"/>
-      <c r="TI2"/>
-      <c r="TJ2"/>
-      <c r="TK2"/>
-      <c r="TL2"/>
-      <c r="TM2"/>
-      <c r="TN2"/>
-      <c r="TO2"/>
-      <c r="TP2"/>
-      <c r="TQ2"/>
-      <c r="TR2"/>
-      <c r="TS2"/>
-      <c r="TT2"/>
-      <c r="TU2"/>
-      <c r="TV2"/>
-      <c r="TW2"/>
-      <c r="TX2"/>
-      <c r="TY2"/>
-      <c r="TZ2"/>
-      <c r="UA2"/>
-      <c r="UB2"/>
-      <c r="UC2"/>
-      <c r="UD2"/>
-      <c r="UE2"/>
-      <c r="UF2"/>
-      <c r="UG2"/>
-      <c r="UH2"/>
-      <c r="UI2"/>
-      <c r="UJ2"/>
-      <c r="UK2"/>
-      <c r="UL2"/>
-      <c r="UM2"/>
-      <c r="UN2"/>
-      <c r="UO2"/>
-      <c r="UP2"/>
-      <c r="UQ2"/>
-      <c r="UR2"/>
-      <c r="US2"/>
-      <c r="UT2"/>
-      <c r="UU2"/>
-      <c r="UV2"/>
-      <c r="UW2"/>
-      <c r="UX2"/>
-      <c r="UY2"/>
-      <c r="UZ2"/>
-      <c r="VA2"/>
-      <c r="VB2"/>
-      <c r="VC2"/>
-      <c r="VD2"/>
-      <c r="VE2"/>
-      <c r="VF2"/>
-      <c r="VG2"/>
-      <c r="VH2"/>
-      <c r="VI2"/>
-      <c r="VJ2"/>
-      <c r="VK2"/>
-      <c r="VL2"/>
-      <c r="VM2"/>
-      <c r="VN2"/>
-      <c r="VO2"/>
-      <c r="VP2"/>
-      <c r="VQ2"/>
-      <c r="VR2"/>
-      <c r="VS2"/>
-      <c r="VT2"/>
-      <c r="VU2"/>
-      <c r="VV2"/>
-      <c r="VW2"/>
-      <c r="VX2"/>
-      <c r="VY2"/>
-      <c r="VZ2"/>
-      <c r="WA2"/>
-      <c r="WB2"/>
-      <c r="WC2"/>
-      <c r="WD2"/>
-      <c r="WE2"/>
-      <c r="WF2"/>
-      <c r="WG2"/>
-      <c r="WH2"/>
-      <c r="WI2"/>
-      <c r="WJ2"/>
-      <c r="WK2"/>
-      <c r="WL2"/>
-      <c r="WM2"/>
-      <c r="WN2"/>
-      <c r="WO2"/>
-      <c r="WP2"/>
-      <c r="WQ2"/>
-      <c r="WR2"/>
-      <c r="WS2"/>
-      <c r="WT2"/>
-      <c r="WU2"/>
-      <c r="WV2"/>
-      <c r="WW2"/>
-      <c r="WX2"/>
-      <c r="WY2"/>
-      <c r="WZ2"/>
-      <c r="XA2"/>
-      <c r="XB2"/>
-      <c r="XC2"/>
-      <c r="XD2"/>
-      <c r="XE2"/>
-      <c r="XF2"/>
-      <c r="XG2"/>
-      <c r="XH2"/>
-      <c r="XI2"/>
-      <c r="XJ2"/>
-      <c r="XK2"/>
-      <c r="XL2"/>
-      <c r="XM2"/>
-      <c r="XN2"/>
-      <c r="XO2"/>
-      <c r="XP2"/>
-      <c r="XQ2"/>
-      <c r="XR2"/>
-      <c r="XS2"/>
-      <c r="XT2"/>
-      <c r="XU2"/>
-      <c r="XV2"/>
-      <c r="XW2"/>
-      <c r="XX2"/>
-      <c r="XY2"/>
-      <c r="XZ2"/>
-      <c r="YA2"/>
-      <c r="YB2"/>
-      <c r="YC2"/>
-      <c r="YD2"/>
-      <c r="YE2"/>
-      <c r="YF2"/>
-      <c r="YG2"/>
-      <c r="YH2"/>
-      <c r="YI2"/>
-      <c r="YJ2"/>
-      <c r="YK2"/>
-      <c r="YL2"/>
-      <c r="YM2"/>
-      <c r="YN2"/>
-      <c r="YO2"/>
-      <c r="YP2"/>
-      <c r="YQ2"/>
-      <c r="YR2"/>
-      <c r="YS2"/>
-      <c r="YT2"/>
-      <c r="YU2"/>
-      <c r="YV2"/>
-      <c r="YW2"/>
-      <c r="YX2"/>
-      <c r="YY2"/>
-      <c r="YZ2"/>
-      <c r="ZA2"/>
-      <c r="ZB2"/>
-      <c r="ZC2"/>
-      <c r="ZD2"/>
-      <c r="ZE2"/>
-      <c r="ZF2"/>
-      <c r="ZG2"/>
-      <c r="ZH2"/>
-      <c r="ZI2"/>
-      <c r="ZJ2"/>
-      <c r="ZK2"/>
-      <c r="ZL2"/>
-      <c r="ZM2"/>
-      <c r="ZN2"/>
-      <c r="ZO2"/>
-      <c r="ZP2"/>
-      <c r="ZQ2"/>
-      <c r="ZR2"/>
-      <c r="ZS2"/>
-      <c r="ZT2"/>
-      <c r="ZU2"/>
-      <c r="ZV2"/>
-      <c r="ZW2"/>
-      <c r="ZX2"/>
-      <c r="ZY2"/>
-      <c r="ZZ2"/>
-      <c r="AAA2"/>
-      <c r="AAB2"/>
-      <c r="AAC2"/>
-      <c r="AAD2"/>
-      <c r="AAE2"/>
-      <c r="AAF2"/>
-      <c r="AAG2"/>
-      <c r="AAH2"/>
-      <c r="AAI2"/>
-      <c r="AAJ2"/>
-      <c r="AAK2"/>
-      <c r="AAL2"/>
-      <c r="AAM2"/>
-      <c r="AAN2"/>
-      <c r="AAO2"/>
-      <c r="AAP2"/>
-      <c r="AAQ2"/>
-      <c r="AAR2"/>
-      <c r="AAS2"/>
-      <c r="AAT2"/>
-      <c r="AAU2"/>
-      <c r="AAV2"/>
-      <c r="AAW2"/>
-      <c r="AAX2"/>
-      <c r="AAY2"/>
-      <c r="AAZ2"/>
-      <c r="ABA2"/>
-      <c r="ABB2"/>
-      <c r="ABC2"/>
-      <c r="ABD2"/>
-      <c r="ABE2"/>
-      <c r="ABF2"/>
-      <c r="ABG2"/>
-      <c r="ABH2"/>
-      <c r="ABI2"/>
-      <c r="ABJ2"/>
-      <c r="ABK2"/>
-      <c r="ABL2"/>
-      <c r="ABM2"/>
-      <c r="ABN2"/>
-      <c r="ABO2"/>
-      <c r="ABP2"/>
-      <c r="ABQ2"/>
-      <c r="ABR2"/>
-      <c r="ABS2"/>
-      <c r="ABT2"/>
-      <c r="ABU2"/>
-      <c r="ABV2"/>
-      <c r="ABW2"/>
-      <c r="ABX2"/>
-      <c r="ABY2"/>
-      <c r="ABZ2"/>
-      <c r="ACA2"/>
-      <c r="ACB2"/>
-      <c r="ACC2"/>
-      <c r="ACD2"/>
-      <c r="ACE2"/>
-      <c r="ACF2"/>
-      <c r="ACG2"/>
-      <c r="ACH2"/>
-      <c r="ACI2"/>
-      <c r="ACJ2"/>
-      <c r="ACK2"/>
-      <c r="ACL2"/>
-      <c r="ACM2"/>
-      <c r="ACN2"/>
-      <c r="ACO2"/>
-      <c r="ACP2"/>
-      <c r="ACQ2"/>
-      <c r="ACR2"/>
-      <c r="ACS2"/>
-      <c r="ACT2"/>
-      <c r="ACU2"/>
-      <c r="ACV2"/>
-      <c r="ACW2"/>
-      <c r="ACX2"/>
-      <c r="ACY2"/>
-      <c r="ACZ2"/>
-      <c r="ADA2"/>
-      <c r="ADB2"/>
-      <c r="ADC2"/>
-      <c r="ADD2"/>
-      <c r="ADE2"/>
-      <c r="ADF2"/>
-      <c r="ADG2"/>
-      <c r="ADH2"/>
-      <c r="ADI2"/>
-      <c r="ADJ2"/>
-      <c r="ADK2"/>
-      <c r="ADL2"/>
-      <c r="ADM2"/>
-      <c r="ADN2"/>
-      <c r="ADO2"/>
-      <c r="ADP2"/>
-      <c r="ADQ2"/>
-      <c r="ADR2"/>
-      <c r="ADS2"/>
-      <c r="ADT2"/>
-      <c r="ADU2"/>
-      <c r="ADV2"/>
-      <c r="ADW2"/>
-      <c r="ADX2"/>
-      <c r="ADY2"/>
-      <c r="ADZ2"/>
-      <c r="AEA2"/>
-      <c r="AEB2"/>
-      <c r="AEC2"/>
-      <c r="AED2"/>
-      <c r="AEE2"/>
-      <c r="AEF2"/>
-      <c r="AEG2"/>
-      <c r="AEH2"/>
-      <c r="AEI2"/>
-      <c r="AEJ2"/>
-      <c r="AEK2"/>
-      <c r="AEL2"/>
-      <c r="AEM2"/>
-      <c r="AEN2"/>
-      <c r="AEO2"/>
-      <c r="AEP2"/>
-      <c r="AEQ2"/>
-      <c r="AER2"/>
-      <c r="AES2"/>
-      <c r="AET2"/>
-      <c r="AEU2"/>
-      <c r="AEV2"/>
-      <c r="AEW2"/>
-      <c r="AEX2"/>
-      <c r="AEY2"/>
-      <c r="AEZ2"/>
-      <c r="AFA2"/>
-      <c r="AFB2"/>
-      <c r="AFC2"/>
-      <c r="AFD2"/>
-      <c r="AFE2"/>
-      <c r="AFF2"/>
-      <c r="AFG2"/>
-      <c r="AFH2"/>
-      <c r="AFI2"/>
-      <c r="AFJ2"/>
-      <c r="AFK2"/>
-      <c r="AFL2"/>
-      <c r="AFM2"/>
-      <c r="AFN2"/>
-      <c r="AFO2"/>
-      <c r="AFP2"/>
-      <c r="AFQ2"/>
-      <c r="AFR2"/>
-      <c r="AFS2"/>
-      <c r="AFT2"/>
-      <c r="AFU2"/>
-      <c r="AFV2"/>
-      <c r="AFW2"/>
-      <c r="AFX2"/>
-      <c r="AFY2"/>
-      <c r="AFZ2"/>
-      <c r="AGA2"/>
-      <c r="AGB2"/>
-      <c r="AGC2"/>
-      <c r="AGD2"/>
-      <c r="AGE2"/>
-      <c r="AGF2"/>
-      <c r="AGG2"/>
-      <c r="AGH2"/>
-      <c r="AGI2"/>
-      <c r="AGJ2"/>
-      <c r="AGK2"/>
-      <c r="AGL2"/>
-      <c r="AGM2"/>
-      <c r="AGN2"/>
-      <c r="AGO2"/>
-      <c r="AGP2"/>
-      <c r="AGQ2"/>
-      <c r="AGR2"/>
-      <c r="AGS2"/>
-      <c r="AGT2"/>
-      <c r="AGU2"/>
-      <c r="AGV2"/>
-      <c r="AGW2"/>
-      <c r="AGX2"/>
-      <c r="AGY2"/>
-      <c r="AGZ2"/>
-      <c r="AHA2"/>
-      <c r="AHB2"/>
-      <c r="AHC2"/>
-      <c r="AHD2"/>
-      <c r="AHE2"/>
-      <c r="AHF2"/>
-      <c r="AHG2"/>
-      <c r="AHH2"/>
-      <c r="AHI2"/>
-      <c r="AHJ2"/>
-      <c r="AHK2"/>
-      <c r="AHL2"/>
-      <c r="AHM2"/>
-      <c r="AHN2"/>
-      <c r="AHO2"/>
-      <c r="AHP2"/>
-      <c r="AHQ2"/>
-      <c r="AHR2"/>
-      <c r="AHS2"/>
-      <c r="AHT2"/>
-      <c r="AHU2"/>
-      <c r="AHV2"/>
-      <c r="AHW2"/>
-      <c r="AHX2"/>
-      <c r="AHY2"/>
-      <c r="AHZ2"/>
-      <c r="AIA2"/>
-      <c r="AIB2"/>
-      <c r="AIC2"/>
-      <c r="AID2"/>
-      <c r="AIE2"/>
-      <c r="AIF2"/>
-      <c r="AIG2"/>
-      <c r="AIH2"/>
-      <c r="AII2"/>
-      <c r="AIJ2"/>
-      <c r="AIK2"/>
-      <c r="AIL2"/>
-      <c r="AIM2"/>
-      <c r="AIN2"/>
-      <c r="AIO2"/>
-      <c r="AIP2"/>
-      <c r="AIQ2"/>
-      <c r="AIR2"/>
-      <c r="AIS2"/>
-      <c r="AIT2"/>
-      <c r="AIU2"/>
-      <c r="AIV2"/>
-      <c r="AIW2"/>
-      <c r="AIX2"/>
-      <c r="AIY2"/>
-      <c r="AIZ2"/>
-      <c r="AJA2"/>
-      <c r="AJB2"/>
-      <c r="AJC2"/>
-      <c r="AJD2"/>
-      <c r="AJE2"/>
-      <c r="AJF2"/>
-      <c r="AJG2"/>
-      <c r="AJH2"/>
-      <c r="AJI2"/>
-      <c r="AJJ2"/>
-      <c r="AJK2"/>
-      <c r="AJL2"/>
-      <c r="AJM2"/>
-      <c r="AJN2"/>
-      <c r="AJO2"/>
-      <c r="AJP2"/>
-      <c r="AJQ2"/>
-      <c r="AJR2"/>
-      <c r="AJS2"/>
-      <c r="AJT2"/>
-      <c r="AJU2"/>
-      <c r="AJV2"/>
-      <c r="AJW2"/>
-      <c r="AJX2"/>
-      <c r="AJY2"/>
-      <c r="AJZ2"/>
-      <c r="AKA2"/>
-      <c r="AKB2"/>
-      <c r="AKC2"/>
-      <c r="AKD2"/>
-      <c r="AKE2"/>
-      <c r="AKF2"/>
-      <c r="AKG2"/>
-      <c r="AKH2"/>
-      <c r="AKI2"/>
-      <c r="AKJ2"/>
-      <c r="AKK2"/>
-      <c r="AKL2"/>
-      <c r="AKM2"/>
-      <c r="AKN2"/>
-      <c r="AKO2"/>
-      <c r="AKP2"/>
-      <c r="AKQ2"/>
-      <c r="AKR2"/>
-      <c r="AKS2"/>
-      <c r="AKT2"/>
-      <c r="AKU2"/>
-      <c r="AKV2"/>
-      <c r="AKW2"/>
-      <c r="AKX2"/>
-      <c r="AKY2"/>
-      <c r="AKZ2"/>
-      <c r="ALA2"/>
-      <c r="ALB2"/>
-      <c r="ALC2"/>
-      <c r="ALD2"/>
-      <c r="ALE2"/>
-      <c r="ALF2"/>
-      <c r="ALG2"/>
-      <c r="ALH2"/>
-      <c r="ALI2"/>
-      <c r="ALJ2"/>
-      <c r="ALK2"/>
-      <c r="ALL2"/>
-      <c r="ALM2"/>
-      <c r="ALN2"/>
-      <c r="ALO2"/>
-      <c r="ALP2"/>
-      <c r="ALQ2"/>
-      <c r="ALR2"/>
-      <c r="ALS2"/>
-      <c r="ALT2"/>
-      <c r="ALU2"/>
-      <c r="ALV2"/>
-      <c r="ALW2"/>
-      <c r="ALX2"/>
-      <c r="ALY2"/>
-      <c r="ALZ2"/>
-      <c r="AMA2"/>
-      <c r="AMB2"/>
-      <c r="AMC2"/>
-      <c r="AMD2"/>
-      <c r="AME2"/>
-      <c r="AMF2"/>
-      <c r="AMG2"/>
-      <c r="AMH2"/>
-    </row>
-    <row r="3" spans="1:1022">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3"/>
       <c r="D3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1022">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
@@ -3409,39 +2330,39 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1022" ht="15">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1022" ht="15">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1022">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
@@ -3451,7 +2372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1022">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3465,31 +2386,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:1022">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9"/>
       <c r="D9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:1022">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10"/>
       <c r="D10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:1022">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -3503,7 +2422,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:1022">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -3517,7 +2436,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:1022">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -3531,7 +2450,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:1022">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -3545,19 +2464,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:1022">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="C15"/>
       <c r="D15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:1022">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -3634,7 +2552,6 @@
       <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C21"/>
       <c r="D21" t="s">
         <v>54</v>
       </c>
@@ -3674,7 +2591,6 @@
       <c r="B24" t="s">
         <v>39</v>
       </c>
-      <c r="C24"/>
       <c r="D24" t="s">
         <v>60</v>
       </c>
@@ -3770,33 +2686,31 @@
       <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>74</v>
-      </c>
-      <c r="D31" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>76</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32"/>
-      <c r="D32" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
         <v>78</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33"/>
       <c r="D33" t="s">
         <v>79</v>
       </c>
@@ -3809,21 +2723,21 @@
         <v>18</v>
       </c>
       <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
         <v>81</v>
-      </c>
-      <c r="D34" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
         <v>83</v>
-      </c>
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" t="s">
-        <v>19</v>
       </c>
       <c r="D35" t="s">
         <v>84</v>
@@ -3837,61 +2751,60 @@
         <v>18</v>
       </c>
       <c r="C36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" t="s">
         <v>86</v>
-      </c>
-      <c r="D36" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
         <v>88</v>
-      </c>
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>90</v>
-      </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" t="s">
         <v>92</v>
-      </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39"/>
-      <c r="D39" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
         <v>94</v>
-      </c>
-      <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" t="s">
-        <v>81</v>
       </c>
       <c r="D40" t="s">
         <v>95</v>
@@ -3905,35 +2818,35 @@
         <v>18</v>
       </c>
       <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" t="s">
         <v>97</v>
-      </c>
-      <c r="D41" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
         <v>99</v>
-      </c>
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
         <v>101</v>
-      </c>
-      <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" t="s">
-        <v>19</v>
       </c>
       <c r="D43" t="s">
         <v>102</v>
@@ -3947,77 +2860,77 @@
         <v>18</v>
       </c>
       <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" t="s">
         <v>104</v>
-      </c>
-      <c r="D44" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" t="s">
         <v>106</v>
-      </c>
-      <c r="B45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" t="s">
         <v>108</v>
-      </c>
-      <c r="B46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" t="s">
         <v>110</v>
-      </c>
-      <c r="B47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" t="s">
         <v>112</v>
-      </c>
-      <c r="B48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
         <v>114</v>
-      </c>
-      <c r="B49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" t="s">
-        <v>104</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -4031,77 +2944,77 @@
         <v>18</v>
       </c>
       <c r="C50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" t="s">
         <v>117</v>
-      </c>
-      <c r="D50" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" t="s">
         <v>119</v>
-      </c>
-      <c r="B51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" t="s">
-        <v>117</v>
-      </c>
-      <c r="D51" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" t="s">
         <v>121</v>
-      </c>
-      <c r="B52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
         <v>123</v>
-      </c>
-      <c r="B53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" t="s">
-        <v>117</v>
-      </c>
-      <c r="D53" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" t="s">
         <v>125</v>
-      </c>
-      <c r="B54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
         <v>127</v>
-      </c>
-      <c r="B55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" t="s">
-        <v>117</v>
       </c>
       <c r="D55" t="s">
         <v>128</v>
@@ -4115,119 +3028,119 @@
         <v>18</v>
       </c>
       <c r="C56" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" t="s">
         <v>130</v>
-      </c>
-      <c r="D56" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" t="s">
         <v>132</v>
-      </c>
-      <c r="B57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" t="s">
-        <v>130</v>
-      </c>
-      <c r="D57" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" t="s">
         <v>134</v>
-      </c>
-      <c r="B58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" t="s">
-        <v>130</v>
-      </c>
-      <c r="D58" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" t="s">
         <v>136</v>
-      </c>
-      <c r="B59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" t="s">
-        <v>130</v>
-      </c>
-      <c r="D59" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" t="s">
         <v>138</v>
-      </c>
-      <c r="B60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" t="s">
-        <v>130</v>
-      </c>
-      <c r="D60" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" t="s">
         <v>140</v>
-      </c>
-      <c r="B61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61" t="s">
-        <v>130</v>
-      </c>
-      <c r="D61" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" t="s">
         <v>142</v>
-      </c>
-      <c r="B62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" t="s">
-        <v>130</v>
-      </c>
-      <c r="D62" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" t="s">
         <v>144</v>
-      </c>
-      <c r="B63" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" t="s">
-        <v>130</v>
-      </c>
-      <c r="D63" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B64" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" t="s">
-        <v>117</v>
       </c>
       <c r="D64" t="s">
         <v>147</v>
@@ -4240,156 +3153,156 @@
       <c r="B65" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" t="s">
         <v>149</v>
-      </c>
-      <c r="D65" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" t="s">
         <v>151</v>
-      </c>
-      <c r="B66" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" t="s">
-        <v>130</v>
-      </c>
-      <c r="D66" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" t="s">
+        <v>127</v>
+      </c>
+      <c r="D67" t="s">
         <v>153</v>
-      </c>
-      <c r="B67" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" t="s">
-        <v>117</v>
-      </c>
-      <c r="D67" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" t="s">
+        <v>127</v>
+      </c>
+      <c r="D68" t="s">
         <v>155</v>
-      </c>
-      <c r="B68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" t="s">
-        <v>130</v>
-      </c>
-      <c r="D68" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>127</v>
+      </c>
+      <c r="D69" t="s">
         <v>157</v>
-      </c>
-      <c r="B69" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" t="s">
-        <v>130</v>
-      </c>
-      <c r="D69" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
+        <v>158</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" t="s">
+        <v>127</v>
+      </c>
+      <c r="D70" t="s">
         <v>159</v>
-      </c>
-      <c r="B70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" t="s">
-        <v>130</v>
-      </c>
-      <c r="D70" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
+        <v>160</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" t="s">
         <v>161</v>
-      </c>
-      <c r="B71" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" t="s">
-        <v>130</v>
-      </c>
-      <c r="D71" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" t="s">
         <v>163</v>
-      </c>
-      <c r="B72" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" t="s">
-        <v>130</v>
-      </c>
-      <c r="D72" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
+        <v>164</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" t="s">
+        <v>127</v>
+      </c>
+      <c r="D73" t="s">
         <v>165</v>
-      </c>
-      <c r="B73" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" t="s">
-        <v>130</v>
-      </c>
-      <c r="D73" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
+        <v>166</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" t="s">
+        <v>114</v>
+      </c>
+      <c r="D74" t="s">
         <v>167</v>
-      </c>
-      <c r="B74" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74" t="s">
-        <v>130</v>
-      </c>
-      <c r="D74" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" t="s">
         <v>169</v>
-      </c>
-      <c r="B75" t="s">
-        <v>18</v>
-      </c>
-      <c r="C75" t="s">
-        <v>117</v>
-      </c>
-      <c r="D75" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B76" t="s">
         <v>18</v>
@@ -4398,18 +3311,18 @@
         <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
+        <v>172</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B77" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77" t="s">
-        <v>19</v>
       </c>
       <c r="D77" t="s">
         <v>174</v>
@@ -4422,22 +3335,22 @@
       <c r="B78" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" t="s">
         <v>176</v>
-      </c>
-      <c r="D78" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
+        <v>177</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" t="s">
         <v>178</v>
-      </c>
-      <c r="B79" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79" t="s">
-        <v>19</v>
       </c>
       <c r="D79" t="s">
         <v>179</v>
@@ -4450,22 +3363,22 @@
       <c r="B80" t="s">
         <v>18</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" t="s">
         <v>181</v>
-      </c>
-      <c r="D80" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
+        <v>182</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" t="s">
         <v>183</v>
-      </c>
-      <c r="B81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" t="s">
-        <v>19</v>
       </c>
       <c r="D81" t="s">
         <v>184</v>
@@ -4478,7 +3391,7 @@
       <c r="B82" t="s">
         <v>18</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D82" t="s">
@@ -4492,16 +3405,16 @@
       <c r="B83" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C83" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" t="s">
         <v>189</v>
-      </c>
-      <c r="D83" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B84" t="s">
         <v>18</v>
@@ -4510,12 +3423,12 @@
         <v>42</v>
       </c>
       <c r="D84" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B85" t="s">
         <v>18</v>
@@ -4524,88 +3437,88 @@
         <v>42</v>
       </c>
       <c r="D85" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
+        <v>194</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" t="s">
         <v>195</v>
-      </c>
-      <c r="B86" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D86" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
+        <v>196</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" t="s">
+        <v>94</v>
+      </c>
+      <c r="D87" t="s">
         <v>197</v>
-      </c>
-      <c r="B87" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87" t="s">
-        <v>97</v>
-      </c>
-      <c r="D87" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
+        <v>198</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88" t="s">
         <v>199</v>
-      </c>
-      <c r="B88" t="s">
-        <v>18</v>
-      </c>
-      <c r="C88" t="s">
-        <v>97</v>
-      </c>
-      <c r="D88" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" t="s">
         <v>201</v>
-      </c>
-      <c r="B89" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" t="s">
-        <v>97</v>
-      </c>
-      <c r="D89" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
+        <v>202</v>
+      </c>
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90" t="s">
         <v>203</v>
-      </c>
-      <c r="B90" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D90" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
+        <v>204</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B91" t="s">
-        <v>18</v>
-      </c>
-      <c r="C91" t="s">
-        <v>97</v>
       </c>
       <c r="D91" t="s">
         <v>206</v>
@@ -4618,22 +3531,22 @@
       <c r="B92" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C92" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D92" t="s">
         <v>208</v>
-      </c>
-      <c r="D92" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
+        <v>209</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="B93" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>208</v>
       </c>
       <c r="D93" t="s">
         <v>211</v>
@@ -4646,8 +3559,8 @@
       <c r="B94" t="s">
         <v>18</v>
       </c>
-      <c r="C94" s="12" t="s">
-        <v>176</v>
+      <c r="C94" t="s">
+        <v>19</v>
       </c>
       <c r="D94" t="s">
         <v>213</v>
@@ -4661,7 +3574,7 @@
         <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="D95" t="s">
         <v>215</v>
@@ -4675,7 +3588,7 @@
         <v>18</v>
       </c>
       <c r="C96" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="D96" t="s">
         <v>217</v>
@@ -4689,21 +3602,21 @@
         <v>18</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="D97" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B98" t="s">
         <v>18</v>
       </c>
       <c r="C98" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D98" t="s">
         <v>222</v>
@@ -4717,7 +3630,7 @@
         <v>18</v>
       </c>
       <c r="C99" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D99" t="s">
         <v>224</v>
@@ -4731,7 +3644,7 @@
         <v>18</v>
       </c>
       <c r="C100" t="s">
-        <v>221</v>
+        <v>19</v>
       </c>
       <c r="D100" t="s">
         <v>226</v>
@@ -4744,9 +3657,6 @@
       <c r="B101" t="s">
         <v>18</v>
       </c>
-      <c r="C101" t="s">
-        <v>19</v>
-      </c>
       <c r="D101" t="s">
         <v>228</v>
       </c>
@@ -4758,7 +3668,9 @@
       <c r="B102" t="s">
         <v>18</v>
       </c>
-      <c r="C102"/>
+      <c r="C102" t="s">
+        <v>19</v>
+      </c>
       <c r="D102" t="s">
         <v>230</v>
       </c>
@@ -4768,10 +3680,7 @@
         <v>231</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D103" t="s">
         <v>232</v>
@@ -4782,18 +3691,20 @@
         <v>233</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
-      </c>
-      <c r="C104"/>
+        <v>18</v>
+      </c>
+      <c r="C104" t="s">
+        <v>19</v>
+      </c>
       <c r="D104" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="10" t="s">
+      <c r="A105" t="s">
         <v>235</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" t="s">
         <v>18</v>
       </c>
       <c r="C105" t="s">
@@ -4808,10 +3719,7 @@
         <v>237</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
-      </c>
-      <c r="C106" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D106" t="s">
         <v>238</v>
@@ -4824,7 +3732,6 @@
       <c r="B107" t="s">
         <v>5</v>
       </c>
-      <c r="C107"/>
       <c r="D107" t="s">
         <v>240</v>
       </c>
@@ -4834,9 +3741,11 @@
         <v>241</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
-      </c>
-      <c r="C108"/>
+        <v>18</v>
+      </c>
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
       <c r="D108" t="s">
         <v>242</v>
       </c>
@@ -4863,7 +3772,7 @@
         <v>18</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D110" t="s">
         <v>246</v>
@@ -4877,7 +3786,7 @@
         <v>18</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D111" t="s">
         <v>248</v>
@@ -4888,10 +3797,7 @@
         <v>249</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
-      </c>
-      <c r="C112" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D112" t="s">
         <v>250</v>
@@ -4902,9 +3808,11 @@
         <v>251</v>
       </c>
       <c r="B113" t="s">
-        <v>39</v>
-      </c>
-      <c r="C113"/>
+        <v>18</v>
+      </c>
+      <c r="C113" t="s">
+        <v>42</v>
+      </c>
       <c r="D113" t="s">
         <v>252</v>
       </c>
@@ -4931,7 +3839,7 @@
         <v>18</v>
       </c>
       <c r="C115" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D115" t="s">
         <v>256</v>
@@ -4945,7 +3853,7 @@
         <v>18</v>
       </c>
       <c r="C116" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D116" t="s">
         <v>258</v>
@@ -4972,9 +3880,6 @@
       <c r="B118" t="s">
         <v>18</v>
       </c>
-      <c r="C118" t="s">
-        <v>42</v>
-      </c>
       <c r="D118" t="s">
         <v>262</v>
       </c>
@@ -4986,7 +3891,9 @@
       <c r="B119" t="s">
         <v>18</v>
       </c>
-      <c r="C119"/>
+      <c r="C119" t="s">
+        <v>33</v>
+      </c>
       <c r="D119" t="s">
         <v>264</v>
       </c>
@@ -4999,7 +3906,7 @@
         <v>18</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D120" t="s">
         <v>266</v>
@@ -5010,10 +3917,7 @@
         <v>267</v>
       </c>
       <c r="B121" t="s">
-        <v>18</v>
-      </c>
-      <c r="C121" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D121" t="s">
         <v>268</v>
@@ -5024,9 +3928,11 @@
         <v>269</v>
       </c>
       <c r="B122" t="s">
-        <v>39</v>
-      </c>
-      <c r="C122"/>
+        <v>18</v>
+      </c>
+      <c r="C122" t="s">
+        <v>19</v>
+      </c>
       <c r="D122" t="s">
         <v>270</v>
       </c>
@@ -5052,9 +3958,6 @@
       <c r="B124" t="s">
         <v>18</v>
       </c>
-      <c r="C124" t="s">
-        <v>19</v>
-      </c>
       <c r="D124" t="s">
         <v>274</v>
       </c>
@@ -5064,10 +3967,7 @@
         <v>275</v>
       </c>
       <c r="B125" t="s">
-        <v>18</v>
-      </c>
-      <c r="C125" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D125" t="s">
         <v>276</v>
@@ -5080,7 +3980,9 @@
       <c r="B126" t="s">
         <v>18</v>
       </c>
-      <c r="C126"/>
+      <c r="C126" t="s">
+        <v>78</v>
+      </c>
       <c r="D126" t="s">
         <v>278</v>
       </c>
@@ -5090,9 +3992,11 @@
         <v>279</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C127"/>
+        <v>18</v>
+      </c>
+      <c r="C127" t="s">
+        <v>19</v>
+      </c>
       <c r="D127" t="s">
         <v>280</v>
       </c>
@@ -5105,7 +4009,7 @@
         <v>18</v>
       </c>
       <c r="C128" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D128" t="s">
         <v>282</v>
@@ -5119,7 +4023,7 @@
         <v>18</v>
       </c>
       <c r="C129" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="D129" t="s">
         <v>284</v>
@@ -5133,7 +4037,7 @@
         <v>18</v>
       </c>
       <c r="C130" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D130" t="s">
         <v>286</v>
@@ -5144,10 +4048,7 @@
         <v>287</v>
       </c>
       <c r="B131" t="s">
-        <v>18</v>
-      </c>
-      <c r="C131" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="D131" t="s">
         <v>288</v>
@@ -5161,7 +4062,7 @@
         <v>18</v>
       </c>
       <c r="C132" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D132" t="s">
         <v>290</v>
@@ -5172,9 +4073,11 @@
         <v>291</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C133"/>
+        <v>18</v>
+      </c>
+      <c r="C133" t="s">
+        <v>19</v>
+      </c>
       <c r="D133" t="s">
         <v>292</v>
       </c>
@@ -5187,7 +4090,7 @@
         <v>18</v>
       </c>
       <c r="C134" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D134" t="s">
         <v>294</v>
@@ -5201,7 +4104,7 @@
         <v>18</v>
       </c>
       <c r="C135" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="D135" t="s">
         <v>296</v>
@@ -5215,7 +4118,7 @@
         <v>18</v>
       </c>
       <c r="C136" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D136" t="s">
         <v>298</v>
@@ -5229,7 +4132,7 @@
         <v>18</v>
       </c>
       <c r="C137" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D137" t="s">
         <v>300</v>
@@ -5243,7 +4146,7 @@
         <v>18</v>
       </c>
       <c r="C138" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D138" t="s">
         <v>302</v>
@@ -5257,7 +4160,7 @@
         <v>18</v>
       </c>
       <c r="C139" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D139" t="s">
         <v>304</v>
@@ -5271,7 +4174,7 @@
         <v>18</v>
       </c>
       <c r="C140" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="D140" t="s">
         <v>306</v>
@@ -5285,7 +4188,7 @@
         <v>18</v>
       </c>
       <c r="C141" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="D141" t="s">
         <v>308</v>
@@ -5299,7 +4202,7 @@
         <v>18</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="D142" t="s">
         <v>310</v>
@@ -5313,7 +4216,7 @@
         <v>18</v>
       </c>
       <c r="C143" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="D143" t="s">
         <v>312</v>
@@ -5327,7 +4230,7 @@
         <v>18</v>
       </c>
       <c r="C144" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D144" t="s">
         <v>314</v>
@@ -5341,7 +4244,7 @@
         <v>18</v>
       </c>
       <c r="C145" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D145" t="s">
         <v>316</v>
@@ -5355,7 +4258,7 @@
         <v>18</v>
       </c>
       <c r="C146" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D146" t="s">
         <v>318</v>
@@ -5369,7 +4272,7 @@
         <v>18</v>
       </c>
       <c r="C147" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D147" t="s">
         <v>320</v>
@@ -5383,7 +4286,7 @@
         <v>18</v>
       </c>
       <c r="C148" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D148" t="s">
         <v>322</v>
@@ -5397,7 +4300,7 @@
         <v>18</v>
       </c>
       <c r="C149" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D149" t="s">
         <v>324</v>
@@ -5411,7 +4314,7 @@
         <v>18</v>
       </c>
       <c r="C150" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D150" t="s">
         <v>326</v>
@@ -5425,7 +4328,7 @@
         <v>18</v>
       </c>
       <c r="C151" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D151" t="s">
         <v>328</v>
@@ -5439,7 +4342,7 @@
         <v>18</v>
       </c>
       <c r="C152" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D152" t="s">
         <v>330</v>
@@ -5453,7 +4356,7 @@
         <v>18</v>
       </c>
       <c r="C153" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D153" t="s">
         <v>332</v>
@@ -5467,7 +4370,7 @@
         <v>18</v>
       </c>
       <c r="C154" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D154" t="s">
         <v>334</v>
@@ -5481,7 +4384,7 @@
         <v>18</v>
       </c>
       <c r="C155" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D155" t="s">
         <v>336</v>
@@ -5495,7 +4398,7 @@
         <v>18</v>
       </c>
       <c r="C156" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D156" t="s">
         <v>338</v>
@@ -5509,7 +4412,7 @@
         <v>18</v>
       </c>
       <c r="C157" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D157" t="s">
         <v>340</v>
@@ -5523,7 +4426,7 @@
         <v>18</v>
       </c>
       <c r="C158" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="D158" t="s">
         <v>342</v>
@@ -5537,7 +4440,7 @@
         <v>18</v>
       </c>
       <c r="C159" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="D159" t="s">
         <v>344</v>
@@ -5550,8 +4453,8 @@
       <c r="B160" t="s">
         <v>18</v>
       </c>
-      <c r="C160" t="s">
-        <v>19</v>
+      <c r="C160" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="D160" t="s">
         <v>346</v>
@@ -5578,44 +4481,44 @@
       <c r="B162" t="s">
         <v>18</v>
       </c>
-      <c r="C162" s="12" t="s">
+      <c r="C162" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162" t="s">
         <v>350</v>
-      </c>
-      <c r="D162" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
+        <v>351</v>
+      </c>
+      <c r="B163" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" t="s">
+        <v>42</v>
+      </c>
+      <c r="D163" t="s">
         <v>352</v>
-      </c>
-      <c r="B163" t="s">
-        <v>18</v>
-      </c>
-      <c r="C163" t="s">
-        <v>19</v>
-      </c>
-      <c r="D163" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
+        <v>353</v>
+      </c>
+      <c r="B164" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" t="s">
+        <v>42</v>
+      </c>
+      <c r="D164" t="s">
         <v>354</v>
-      </c>
-      <c r="B164" t="s">
-        <v>18</v>
-      </c>
-      <c r="C164" t="s">
-        <v>19</v>
-      </c>
-      <c r="D164" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B165" t="s">
         <v>18</v>
@@ -5624,82 +4527,82 @@
         <v>42</v>
       </c>
       <c r="D165" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
+        <v>357</v>
+      </c>
+      <c r="B166" t="s">
+        <v>18</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D166" t="s">
         <v>358</v>
-      </c>
-      <c r="B166" t="s">
-        <v>18</v>
-      </c>
-      <c r="C166" t="s">
-        <v>42</v>
-      </c>
-      <c r="D166" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
+        <v>359</v>
+      </c>
+      <c r="B167" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D167" t="s">
         <v>360</v>
-      </c>
-      <c r="B167" t="s">
-        <v>18</v>
-      </c>
-      <c r="C167" t="s">
-        <v>42</v>
-      </c>
-      <c r="D167" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
+        <v>361</v>
+      </c>
+      <c r="B168" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D168" t="s">
         <v>362</v>
-      </c>
-      <c r="B168" t="s">
-        <v>18</v>
-      </c>
-      <c r="C168" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D168" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
+        <v>363</v>
+      </c>
+      <c r="B169" t="s">
+        <v>18</v>
+      </c>
+      <c r="C169" t="s">
+        <v>19</v>
+      </c>
+      <c r="D169" t="s">
         <v>364</v>
-      </c>
-      <c r="B169" t="s">
-        <v>18</v>
-      </c>
-      <c r="C169" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D169" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
+        <v>365</v>
+      </c>
+      <c r="B170" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170" t="s">
+        <v>19</v>
+      </c>
+      <c r="D170" t="s">
         <v>366</v>
-      </c>
-      <c r="B170" t="s">
-        <v>18</v>
-      </c>
-      <c r="C170" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D170" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B171" t="s">
         <v>18</v>
@@ -5708,26 +4611,23 @@
         <v>19</v>
       </c>
       <c r="D171" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
+        <v>369</v>
+      </c>
+      <c r="B172" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" t="s">
         <v>370</v>
-      </c>
-      <c r="B172" t="s">
-        <v>18</v>
-      </c>
-      <c r="C172" t="s">
-        <v>19</v>
-      </c>
-      <c r="D172" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B173" t="s">
         <v>18</v>
@@ -5736,57 +4636,22 @@
         <v>19</v>
       </c>
       <c r="D173" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" t="s">
-        <v>374</v>
-      </c>
-      <c r="B174" t="s">
-        <v>18</v>
-      </c>
-      <c r="C174"/>
-      <c r="D174" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" t="s">
-        <v>376</v>
-      </c>
-      <c r="B175" t="s">
-        <v>18</v>
-      </c>
-      <c r="C175" t="s">
-        <v>19</v>
-      </c>
-      <c r="D175" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="C176"/>
+        <v>372</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D175" xr:uid="{CB884253-6560-4D16-8383-8D9DA571A935}"/>
-  <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" sqref="B3:B615" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"integer,decimal,text,binary,locale,boolean,datetime,date"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E173"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D33"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
@@ -5795,584 +4660,583 @@
     <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>101</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>102</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>103</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>104</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>105</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>379</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6">
-        <v>101</v>
-      </c>
-      <c r="C2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="B7">
+        <v>106</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="6" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6">
-        <v>102</v>
-      </c>
-      <c r="C3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="B8">
+        <v>107</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="6" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6">
-        <v>103</v>
-      </c>
-      <c r="C4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="B9">
+        <v>108</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="6" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6">
-        <v>104</v>
-      </c>
-      <c r="C5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="B10">
+        <v>109</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="6" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6">
-        <v>105</v>
-      </c>
-      <c r="C6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B11">
+        <v>110</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15">
-      <c r="A7" s="6" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6">
-        <v>106</v>
-      </c>
-      <c r="C7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="B12">
+        <v>111</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="6" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6">
-        <v>107</v>
-      </c>
-      <c r="C8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="B13">
+        <v>112</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15">
-      <c r="A9" s="6" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6">
-        <v>108</v>
-      </c>
-      <c r="C9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B14">
+        <v>113</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="6" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6">
-        <v>109</v>
-      </c>
-      <c r="C10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="B15">
+        <v>114</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15">
-      <c r="A11" s="6" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6">
-        <v>110</v>
-      </c>
-      <c r="C11" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="B16">
+        <v>115</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15">
-      <c r="A12" s="6" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
-        <v>111</v>
-      </c>
-      <c r="C12" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="B17">
+        <v>116</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15">
-      <c r="A13" s="6" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
-        <v>112</v>
-      </c>
-      <c r="C13" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="B18">
+        <v>117</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15">
-      <c r="A14" s="6" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="6">
-        <v>113</v>
-      </c>
-      <c r="C14" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="B19">
+        <v>118</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15">
-      <c r="A15" s="6" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="6">
-        <v>114</v>
-      </c>
-      <c r="C15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="B20">
+        <v>119</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15">
-      <c r="A16" s="6" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="6">
-        <v>115</v>
-      </c>
-      <c r="C16" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="B21">
+        <v>120</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="6" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="6">
-        <v>116</v>
-      </c>
-      <c r="C17" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="B22">
+        <v>121</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15">
-      <c r="A18" s="6" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="6">
-        <v>117</v>
-      </c>
-      <c r="C18" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="B23">
+        <v>122</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
-      <c r="A19" s="6" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="6">
-        <v>118</v>
-      </c>
-      <c r="C19" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="B24">
+        <v>123</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
-      <c r="A20" s="6" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="6">
-        <v>119</v>
-      </c>
-      <c r="C20" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="B25">
+        <v>124</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15">
-      <c r="A21" s="6" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="6">
-        <v>120</v>
-      </c>
-      <c r="C21" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="B26">
+        <v>125</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>126</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
-      <c r="A22" s="6" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="6">
-        <v>121</v>
-      </c>
-      <c r="C22" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="B28">
+        <v>127</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="6" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="6">
-        <v>122</v>
-      </c>
-      <c r="C23" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="B29">
+        <v>128</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15">
-      <c r="A24" s="6" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="6">
-        <v>123</v>
-      </c>
-      <c r="C24" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="B30">
+        <v>129</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15">
-      <c r="A25" s="6" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="6">
-        <v>124</v>
-      </c>
-      <c r="C25" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="B31">
+        <v>130</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15">
-      <c r="A26" s="7" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="7">
-        <v>125</v>
-      </c>
-      <c r="C26" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="B32">
+        <v>131</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15">
-      <c r="A27" s="6" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="6">
-        <v>126</v>
-      </c>
-      <c r="C27" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="B33">
+        <v>132</v>
+      </c>
+      <c r="C33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15">
-      <c r="A28" s="6" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>30</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>23</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>22</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>21</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>13</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40">
         <v>11</v>
       </c>
-      <c r="B28" s="6">
-        <v>127</v>
-      </c>
-      <c r="C28" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15">
-      <c r="A29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="6">
-        <v>128</v>
-      </c>
-      <c r="C29" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15">
-      <c r="A30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="6">
-        <v>129</v>
-      </c>
-      <c r="C30" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15">
-      <c r="A31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="6">
-        <v>130</v>
-      </c>
-      <c r="C31" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15">
-      <c r="A32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="6">
-        <v>131</v>
-      </c>
-      <c r="C32" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15">
-      <c r="A33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="15">
-        <v>132</v>
-      </c>
-      <c r="C33" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15">
-      <c r="A34" s="8" t="s">
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="9">
-        <v>30</v>
-      </c>
-      <c r="C34" t="b">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15">
-      <c r="A35" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="9">
-        <v>23</v>
-      </c>
-      <c r="C35" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
         <v>413</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15">
-      <c r="A36" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="9">
-        <v>22</v>
-      </c>
-      <c r="C36" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15">
-      <c r="A37" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="9">
-        <v>21</v>
-      </c>
-      <c r="C37" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15">
-      <c r="A38" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="9">
-        <v>13</v>
-      </c>
-      <c r="C38" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15">
-      <c r="A39" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="9">
-        <v>12</v>
-      </c>
-      <c r="C39" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15">
-      <c r="A40" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="9">
-        <v>11</v>
-      </c>
-      <c r="C40" t="b">
-        <v>0</v>
-      </c>
-      <c r="D40" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15">
-      <c r="A41" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="9">
-        <v>10</v>
-      </c>
-      <c r="C41" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B42">
         <v>1001</v>
@@ -6381,12 +5245,12 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B43">
         <v>1102</v>
@@ -6395,12 +5259,12 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B44">
         <v>1103</v>
@@ -6409,12 +5273,12 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B45">
         <v>1104</v>
@@ -6423,12 +5287,12 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B46">
         <v>1201</v>
@@ -6437,12 +5301,12 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B47">
         <v>1202</v>
@@ -6451,12 +5315,12 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B48">
         <v>1203</v>
@@ -6465,12 +5329,12 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B49">
         <v>1204</v>
@@ -6479,12 +5343,12 @@
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B50">
         <v>1205</v>
@@ -6493,12 +5357,12 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B51">
         <v>1301</v>
@@ -6507,12 +5371,12 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B52">
         <v>1401</v>
@@ -6521,12 +5385,12 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B53">
         <v>1402</v>
@@ -6535,12 +5399,12 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B54">
         <v>1403</v>
@@ -6549,12 +5413,12 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B55">
         <v>1404</v>
@@ -6563,12 +5427,12 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B56">
         <v>1501</v>
@@ -6577,12 +5441,12 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B57">
         <v>1601</v>
@@ -6591,12 +5455,12 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B58">
         <v>1701</v>
@@ -6605,12 +5469,12 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B59">
         <v>1801</v>
@@ -6619,12 +5483,12 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B60">
         <v>1802</v>
@@ -6633,12 +5497,12 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B61">
         <v>1803</v>
@@ -6647,12 +5511,12 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B62">
         <v>1901</v>
@@ -6661,26 +5525,26 @@
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B63">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B64">
         <v>2101</v>
@@ -6689,12 +5553,12 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B65">
         <v>2201</v>
@@ -6703,21 +5567,21 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B66">
         <v>2301</v>
       </c>
-      <c r="C66" s="14" t="b">
+      <c r="C66" t="b">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6727,11 +5591,11 @@
       <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67" s="14" t="b">
+      <c r="C67" t="b">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -6741,11 +5605,11 @@
       <c r="B68">
         <v>2</v>
       </c>
-      <c r="C68" s="14" t="b">
+      <c r="C68" t="b">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -6755,11 +5619,11 @@
       <c r="B69">
         <v>3</v>
       </c>
-      <c r="C69" s="14" t="b">
+      <c r="C69" t="b">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -6769,11 +5633,11 @@
       <c r="B70">
         <v>1</v>
       </c>
-      <c r="C70" s="14" t="b">
+      <c r="C70" t="b">
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -6783,11 +5647,11 @@
       <c r="B71">
         <v>2</v>
       </c>
-      <c r="C71" s="14" t="b">
+      <c r="C71" t="b">
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -6797,11 +5661,11 @@
       <c r="B72">
         <v>3</v>
       </c>
-      <c r="C72" s="14" t="b">
+      <c r="C72" t="b">
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -6811,11 +5675,11 @@
       <c r="B73">
         <v>4</v>
       </c>
-      <c r="C73" s="14" t="b">
+      <c r="C73" t="b">
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -6825,179 +5689,179 @@
       <c r="B74">
         <v>5</v>
       </c>
-      <c r="C74" s="14" t="b">
+      <c r="C74" t="b">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
-      <c r="C75" s="14" t="b">
+      <c r="C75" t="b">
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>2</v>
       </c>
-      <c r="C76" s="14" t="b">
+      <c r="C76" t="b">
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>3</v>
       </c>
-      <c r="C77" s="14" t="b">
+      <c r="C77" t="b">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B78">
         <v>4</v>
       </c>
-      <c r="C78" s="14" t="b">
+      <c r="C78" t="b">
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B79">
         <v>5</v>
       </c>
-      <c r="C79" s="14" t="b">
+      <c r="C79" t="b">
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B80">
         <v>6</v>
       </c>
-      <c r="C80" s="14" t="b">
+      <c r="C80" t="b">
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="C81" s="14" t="b">
+      <c r="C81" t="b">
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>2</v>
       </c>
-      <c r="C82" s="14" t="b">
+      <c r="C82" t="b">
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B83">
         <v>3</v>
       </c>
-      <c r="C83" s="14" t="b">
+      <c r="C83" t="b">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>4</v>
       </c>
-      <c r="C84" s="14" t="b">
+      <c r="C84" t="b">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B85">
         <v>5</v>
       </c>
-      <c r="C85" s="14" t="b">
+      <c r="C85" t="b">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B86">
         <v>6</v>
       </c>
-      <c r="C86" s="14" t="b">
+      <c r="C86" t="b">
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -7007,11 +5871,11 @@
       <c r="B87">
         <v>0</v>
       </c>
-      <c r="C87" s="14" t="b">
+      <c r="C87" t="b">
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -7021,509 +5885,320 @@
       <c r="B88">
         <v>1</v>
       </c>
-      <c r="C88" s="14" t="b">
+      <c r="C88" t="b">
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
-      <c r="C89" s="14" t="b">
+      <c r="C89" t="b">
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B90">
         <v>2</v>
       </c>
-      <c r="C90" s="14" t="b">
+      <c r="C90" t="b">
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B91">
         <v>3</v>
       </c>
-      <c r="C91" s="14" t="b">
+      <c r="C91" t="b">
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
-      <c r="C92" s="14" t="b">
+      <c r="C92" t="b">
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B93">
         <v>2</v>
       </c>
-      <c r="C93" s="14" t="b">
+      <c r="C93" t="b">
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B94">
         <v>3</v>
       </c>
-      <c r="C94" s="14" t="b">
+      <c r="C94" t="b">
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B95">
         <v>4</v>
       </c>
-      <c r="C95" s="14" t="b">
+      <c r="C95" t="b">
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B96">
         <v>5</v>
       </c>
-      <c r="C96" s="14" t="b">
+      <c r="C96" t="b">
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
-      <c r="C97" s="14" t="b">
+      <c r="C97" t="b">
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B98">
         <v>2</v>
       </c>
-      <c r="C98" s="14" t="b">
+      <c r="C98" t="b">
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B99">
         <v>3</v>
       </c>
-      <c r="C99" s="14" t="b">
+      <c r="C99" t="b">
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B100">
         <v>4</v>
       </c>
-      <c r="C100" s="14" t="b">
+      <c r="C100" t="b">
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B101">
         <v>5</v>
       </c>
-      <c r="C101" s="14" t="b">
+      <c r="C101" t="b">
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B102">
         <v>6</v>
       </c>
-      <c r="C102" s="14" t="b">
+      <c r="C102" t="b">
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
-      <c r="C103" s="14" t="b">
+      <c r="C103" t="b">
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B104">
         <v>2</v>
       </c>
-      <c r="C104" s="14" t="b">
+      <c r="C104" t="b">
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B105">
         <v>3</v>
       </c>
-      <c r="C105" s="14" t="b">
+      <c r="C105" t="b">
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B106">
         <v>4</v>
       </c>
-      <c r="C106" s="14" t="b">
+      <c r="C106" t="b">
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B107">
         <v>5</v>
       </c>
-      <c r="C107" s="14" t="b">
+      <c r="C107" t="b">
         <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B108">
         <v>6</v>
       </c>
-      <c r="C108" s="14" t="b">
+      <c r="C108" t="b">
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
-      <c r="C109" s="14" t="b">
+      <c r="C109" t="b">
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
-      <c r="C110" s="14" t="b">
+      <c r="C110" t="b">
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="B111" s="1"/>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="B112" s="1"/>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="1"/>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="1"/>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="1"/>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="1"/>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="1"/>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="1"/>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="1"/>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="1"/>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="1"/>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="1"/>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="1"/>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="1"/>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="1"/>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="1"/>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="1"/>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="1"/>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="1"/>
-    </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="1"/>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="1"/>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="1"/>
-    </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="1"/>
-    </row>
-    <row r="134" spans="2:2">
-      <c r="B134" s="1"/>
-    </row>
-    <row r="135" spans="2:2">
-      <c r="B135" s="1"/>
-    </row>
-    <row r="136" spans="2:2">
-      <c r="B136" s="1"/>
-    </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="1"/>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="1"/>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="1"/>
-    </row>
-    <row r="140" spans="2:2">
-      <c r="B140" s="1"/>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="1"/>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="1"/>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="1"/>
-    </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="1"/>
-    </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="1"/>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="1"/>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="1"/>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="1"/>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="1"/>
-    </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="1"/>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="1"/>
-    </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="1"/>
-    </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="1"/>
-    </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="1"/>
-    </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="1"/>
-    </row>
-    <row r="156" spans="2:2">
-      <c r="B156" s="1"/>
-    </row>
-    <row r="157" spans="2:2">
-      <c r="B157" s="1"/>
-    </row>
-    <row r="158" spans="2:2">
-      <c r="B158" s="1"/>
-    </row>
-    <row r="159" spans="2:2">
-      <c r="B159" s="1"/>
-    </row>
-    <row r="160" spans="2:2">
-      <c r="B160" s="1"/>
-    </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="1"/>
-    </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="1"/>
-    </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="1"/>
-    </row>
-    <row r="164" spans="2:2">
-      <c r="B164" s="1"/>
-    </row>
-    <row r="165" spans="2:2">
-      <c r="B165" s="1"/>
-    </row>
-    <row r="166" spans="2:2">
-      <c r="B166" s="1"/>
-    </row>
-    <row r="167" spans="2:2">
-      <c r="B167" s="1"/>
-    </row>
-    <row r="168" spans="2:2">
-      <c r="B168" s="1"/>
-    </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="1"/>
-    </row>
-    <row r="170" spans="2:2">
-      <c r="B170" s="1"/>
-    </row>
-    <row r="171" spans="2:2">
-      <c r="B171" s="1"/>
-    </row>
-    <row r="172" spans="2:2">
-      <c r="B172" s="1"/>
-    </row>
-    <row r="173" spans="2:2">
-      <c r="B173" s="1"/>
+        <v>454</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
